--- a/Mapeamento.xlsx
+++ b/Mapeamento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Custos" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,51 @@
     <sheet name="Plano de ação" sheetId="3" r:id="rId3"/>
     <sheet name="Plano de Vendas" sheetId="4" r:id="rId4"/>
     <sheet name="Apresentação da Empresa" sheetId="5" r:id="rId5"/>
-    <sheet name="Custos de produção - 1° mês" sheetId="6" r:id="rId6"/>
+    <sheet name="Capacidade de Produção" sheetId="6" r:id="rId6"/>
+    <sheet name="Gastos" sheetId="7" r:id="rId7"/>
+    <sheet name="Custo de Produção" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Walisson Sobral</author>
+  </authors>
+  <commentList>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Walisson Sobral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Quantidade para fazer uma vela 
+Considerei que 5g faz 30 velas</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>Despesas com Parafina</t>
   </si>
@@ -280,29 +317,224 @@
   </si>
   <si>
     <t>Sugestões</t>
+  </si>
+  <si>
+    <t>Capacidade de produção diária</t>
+  </si>
+  <si>
+    <t>7 dias</t>
+  </si>
+  <si>
+    <t>Palito</t>
+  </si>
+  <si>
+    <t>Tarugos</t>
+  </si>
+  <si>
+    <t>Máquina</t>
+  </si>
+  <si>
+    <t>Palito s/ tarugo</t>
+  </si>
+  <si>
+    <t>Quantidade de parafina utilizada / dia</t>
+  </si>
+  <si>
+    <t>Em kg</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Telefone + internet</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>Capacidade produção Mensal / em média</t>
+  </si>
+  <si>
+    <t>Quantidade de anilina utilizada / dia</t>
+  </si>
+  <si>
+    <t>Quantidade de barbante utilizada / dia</t>
+  </si>
+  <si>
+    <t>Quantidade de essência utilizada / dia</t>
+  </si>
+  <si>
+    <t>Quantidade de pavio utilizada / dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 dias </t>
+  </si>
+  <si>
+    <t>Quantidade de parafina utilizada / mês</t>
+  </si>
+  <si>
+    <t>Quantidade de anilina utilizada / mês</t>
+  </si>
+  <si>
+    <t>Quantidade de pavio utilizada / mês</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Parafina</t>
+  </si>
+  <si>
+    <t>Anilina</t>
+  </si>
+  <si>
+    <t>Barbante</t>
+  </si>
+  <si>
+    <t>Pavio</t>
+  </si>
+  <si>
+    <t>Essência</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Quantidade produção - 1° mês</t>
+  </si>
+  <si>
+    <t>palito</t>
+  </si>
+  <si>
+    <t>tarugos</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Retorno das Vendas</t>
+  </si>
+  <si>
+    <t>Palito (kg)</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>1 KG &gt;&gt;&gt; 30 VELAS</t>
+  </si>
+  <si>
+    <t>kg de palito</t>
+  </si>
+  <si>
+    <t>Fluxo de Caixa</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Fluxo de Caixa para capacidade de produção</t>
+  </si>
+  <si>
+    <t>Ponto de Equilíbrio</t>
+  </si>
+  <si>
+    <t>minutos trabalhados / dia</t>
+  </si>
+  <si>
+    <t>horas / colaborador - mês</t>
+  </si>
+  <si>
+    <t>Capacidade de produção mensal - qtd</t>
+  </si>
+  <si>
+    <t>velas 7 dias</t>
+  </si>
+  <si>
+    <t>kilos de velas palito</t>
+  </si>
+  <si>
+    <t>Ponto de Equilíbrio - capacidade de produção</t>
+  </si>
+  <si>
+    <t>kilos de vela palito</t>
+  </si>
+  <si>
+    <t>DAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial unicode"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -310,18 +542,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1353,7 +1653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
@@ -1362,10 +1664,674 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="E1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1">
+        <v>169</v>
+      </c>
+      <c r="F3">
+        <f>H3-G3</f>
+        <v>1669</v>
+      </c>
+      <c r="G3">
+        <v>507</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2176</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>80</v>
+      </c>
+      <c r="P3" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="D4" s="1"/>
+      <c r="P4">
+        <v>408</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6">
+        <f>E3*21</f>
+        <v>3549</v>
+      </c>
+      <c r="F6">
+        <f>F3*21</f>
+        <v>35049</v>
+      </c>
+      <c r="G6">
+        <f>G3*21</f>
+        <v>10647</v>
+      </c>
+      <c r="H6">
+        <f>H3*21</f>
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="P8">
+        <f>P3*P2</f>
+        <v>168</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="1">
+        <v>260</v>
+      </c>
+      <c r="F10" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="J11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="6">
+        <f>(E10*$E$3)/1000</f>
+        <v>43.94</v>
+      </c>
+      <c r="F12" s="6">
+        <f>(F10*$F$3)/1000</f>
+        <v>58.414999999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <f>(F10*G3)/1000</f>
+        <v>17.745000000000001</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="J13" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14">
+        <v>0.16</v>
+      </c>
+      <c r="F14">
+        <v>0.16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="J15" s="12">
+        <f>(E6*1000)/$H$34</f>
+        <v>1407.1606994171525</v>
+      </c>
+      <c r="K15" s="12">
+        <f>(F6*1000)/$H$34</f>
+        <v>13896.752706078269</v>
+      </c>
+      <c r="L15" s="12">
+        <f>(G6*1000)/$H$34</f>
+        <v>4221.4820982514575</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="10">
+        <f>(E14*$E$3)/1000</f>
+        <v>2.7039999999999998E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f>(F14*$F$3)/1000</f>
+        <v>0.26704</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="12">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26">
+        <f>(1*$E$3)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="7">
+        <f>(E3*$P$8)*15%+E3</f>
+        <v>4427.8</v>
+      </c>
+      <c r="F30" s="7">
+        <f>(F3*$P$8)*15%+F3</f>
+        <v>43727.799999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19">
+        <f>(21*E12)</f>
+        <v>922.74</v>
+      </c>
+      <c r="F32" s="19">
+        <f>(21*F12)</f>
+        <v>1226.7149999999999</v>
+      </c>
+      <c r="G32" s="19">
+        <f>(21*G12)</f>
+        <v>372.64500000000004</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="13">
+        <f>SUM(E32:G33)</f>
+        <v>2522.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21">
+        <f>E17*21</f>
+        <v>0.56784000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19">
+        <f>E26*21</f>
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:E33"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" ht="15">
+      <c r="G3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5">
+        <v>470</v>
+      </c>
+      <c r="L5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5">
+        <v>1227</v>
+      </c>
+      <c r="O5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6">
+        <v>3.5</v>
+      </c>
+      <c r="H6">
+        <v>10.9</v>
+      </c>
+      <c r="K6">
+        <v>1410</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6">
+        <v>3549</v>
+      </c>
+      <c r="O6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="14">
+        <f>G6*'Capacidade de Produção'!J15</f>
+        <v>4925.0624479600338</v>
+      </c>
+      <c r="H8" s="14">
+        <f>H6*'Capacidade de Produção'!K17</f>
+        <v>5308.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>16393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>16393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="14">
+        <f>G6*3549</f>
+        <v>12421.5</v>
+      </c>
+      <c r="H10" s="14">
+        <f>((35049*35)/1000)*H6</f>
+        <v>13371.193499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="5">
+        <f>SUM(B4:B15)</f>
+        <v>17224</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="G21" s="15">
+        <f>SUM(G8:H8)-B19</f>
+        <v>-6990.637552039967</v>
+      </c>
+      <c r="I21" s="12">
+        <f>SUM(G10:H10)-B19</f>
+        <v>8568.6935000000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>

--- a/Mapeamento.xlsx
+++ b/Mapeamento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Custos" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Capacidade de Produção" sheetId="6" r:id="rId6"/>
     <sheet name="Gastos" sheetId="7" r:id="rId7"/>
     <sheet name="Custo de Produção" sheetId="9" r:id="rId8"/>
+    <sheet name="PCP" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
   <si>
     <t>Despesas com Parafina</t>
   </si>
@@ -476,6 +477,9 @@
   </si>
   <si>
     <t>DAS</t>
+  </si>
+  <si>
+    <t>Certificado digital</t>
   </si>
 </sst>
 </file>
@@ -597,22 +601,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,9 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1641,7 +1643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
@@ -1653,9 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
@@ -1668,7 +1670,7 @@
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1695,11 +1697,11 @@
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="J2" s="1" t="s">
@@ -1722,9 +1724,9 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1">
         <v>169</v>
       </c>
@@ -1762,16 +1764,16 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6">
         <f>E3*21</f>
         <v>3549</v>
@@ -1804,18 +1806,18 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="1">
         <v>260</v>
       </c>
@@ -1824,11 +1826,11 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="2:17">
       <c r="D12" t="s">
@@ -1846,23 +1848,23 @@
         <f>(F10*G3)/1000</f>
         <v>17.745000000000001</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14">
         <v>0.16</v>
       </c>
@@ -1880,9 +1882,9 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="J15" s="12">
         <f>(E6*1000)/$H$34</f>
         <v>1407.1606994171525</v>
@@ -1923,54 +1925,54 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="K19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26">
         <f>(1*$E$3)</f>
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" t="s">
         <v>88</v>
       </c>
@@ -1979,9 +1981,9 @@
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="7">
         <f>(E3*$P$8)*15%+E3</f>
         <v>4427.8</v>
@@ -1992,35 +1994,35 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18">
         <f>(21*E12)</f>
         <v>922.74</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <f>(21*F12)</f>
         <v>1226.7149999999999</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <f>(21*G12)</f>
         <v>372.64500000000004</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="8"/>
@@ -2037,21 +2039,21 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17">
         <f>E17*21</f>
         <v>0.56784000000000001</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3"/>
@@ -2059,24 +2061,32 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="18">
         <f>E26*21</f>
         <v>3549</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="B36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="B39:D40"/>
@@ -2088,14 +2098,6 @@
     <mergeCell ref="B19:D20"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B25:D26"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2107,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2127,11 +2129,11 @@
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" t="s">
         <v>137</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>111</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H6">
         <v>10.9</v>
@@ -2209,6 +2211,9 @@
       <c r="A7" t="s">
         <v>110</v>
       </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
       <c r="C7" t="s">
         <v>111</v>
       </c>
@@ -2219,7 +2224,7 @@
       </c>
       <c r="G8" s="14">
         <f>G6*'Capacidade de Produção'!J15</f>
-        <v>4925.0624479600338</v>
+        <v>4080.7660283097421</v>
       </c>
       <c r="H8" s="14">
         <f>H6*'Capacidade de Produção'!K17</f>
@@ -2231,7 +2236,7 @@
         <v>113</v>
       </c>
       <c r="B9">
-        <v>16393</v>
+        <v>6500</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -2249,7 +2254,7 @@
       </c>
       <c r="G10" s="14">
         <f>G6*3549</f>
-        <v>12421.5</v>
+        <v>10292.1</v>
       </c>
       <c r="H10" s="14">
         <f>((35049*35)/1000)*H6</f>
@@ -2293,13 +2298,21 @@
         <v>64</v>
       </c>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>221</v>
+      </c>
+    </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>122</v>
       </c>
       <c r="B19" s="5">
-        <f>SUM(B4:B15)</f>
-        <v>17224</v>
+        <f>SUM(B4:B16)</f>
+        <v>7702</v>
       </c>
       <c r="G19" t="s">
         <v>128</v>
@@ -2311,11 +2324,11 @@
     <row r="21" spans="1:9">
       <c r="G21" s="15">
         <f>SUM(G8:H8)-B19</f>
-        <v>-6990.637552039967</v>
+        <v>1687.0660283097423</v>
       </c>
       <c r="I21" s="12">
         <f>SUM(G10:H10)-B19</f>
-        <v>8568.6935000000012</v>
+        <v>15961.2935</v>
       </c>
     </row>
   </sheetData>
@@ -2337,4 +2350,16 @@
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Mapeamento.xlsx
+++ b/Mapeamento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Custos" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,20 @@
     <sheet name="Plano de Vendas" sheetId="4" r:id="rId4"/>
     <sheet name="Apresentação da Empresa" sheetId="5" r:id="rId5"/>
     <sheet name="Capacidade de Produção" sheetId="6" r:id="rId6"/>
-    <sheet name="Gastos" sheetId="7" r:id="rId7"/>
-    <sheet name="Custo de Produção" sheetId="9" r:id="rId8"/>
-    <sheet name="PCP" sheetId="10" r:id="rId9"/>
+    <sheet name="Caixa de diálogo1" sheetId="12" r:id="rId7"/>
+    <sheet name="Gastos mensais" sheetId="7" r:id="rId8"/>
+    <sheet name="investimento inicial" sheetId="11" r:id="rId9"/>
+    <sheet name="Capacidade produtiva" sheetId="13" r:id="rId10"/>
+    <sheet name="Custo de Produção" sheetId="9" r:id="rId11"/>
+    <sheet name="Distribuição lucros" sheetId="10" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="kgparafina">'Capacidade produtiva'!$J$6</definedName>
+    <definedName name="lucro">'Custo de Produção'!$J$12</definedName>
+    <definedName name="qtd7dias">'Capacidade produtiva'!$F$3</definedName>
+    <definedName name="qtdpalito">'Capacidade produtiva'!$F$6</definedName>
+    <definedName name="qtdpalitokg">'Capacidade produtiva'!$F$9</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -57,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="228">
   <si>
     <t>Despesas com Parafina</t>
   </si>
@@ -480,18 +490,280 @@
   </si>
   <si>
     <t>Certificado digital</t>
+  </si>
+  <si>
+    <t>Maquinário 7 dias</t>
+  </si>
+  <si>
+    <t>Maquinário Velas palito</t>
+  </si>
+  <si>
+    <t>Embaladora</t>
+  </si>
+  <si>
+    <t>Caixa d'água 2</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Alvara</t>
+  </si>
+  <si>
+    <t>CLCB</t>
+  </si>
+  <si>
+    <t>Acessórios</t>
+  </si>
+  <si>
+    <t>2° análise</t>
+  </si>
+  <si>
+    <t>Quantidade de produção dia</t>
+  </si>
+  <si>
+    <t>Quantidade de produção mês</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Combustível</t>
+  </si>
+  <si>
+    <t>Capital de giro</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Zona Leste</t>
+  </si>
+  <si>
+    <t>Zona Sul</t>
+  </si>
+  <si>
+    <t>Zona Norte</t>
+  </si>
+  <si>
+    <t>Zona Oeste</t>
+  </si>
+  <si>
+    <t>R$</t>
+  </si>
+  <si>
+    <t>Pedido mínimo / região</t>
+  </si>
+  <si>
+    <t>Pedido mínimo quantidade</t>
+  </si>
+  <si>
+    <t>Formas de pagamento</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>Boleto bancário</t>
+  </si>
+  <si>
+    <t>Mínimo para pedidos no boleto bancário</t>
+  </si>
+  <si>
+    <t>15DDL</t>
+  </si>
+  <si>
+    <t>Cálculo custo de produção</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>Valor/kg</t>
+  </si>
+  <si>
+    <t>Critério</t>
+  </si>
+  <si>
+    <t>1g / kg de parafina</t>
+  </si>
+  <si>
+    <t>essência</t>
+  </si>
+  <si>
+    <t>tonelada</t>
+  </si>
+  <si>
+    <t>barbante</t>
+  </si>
+  <si>
+    <t>Custos</t>
+  </si>
+  <si>
+    <t>luz maquinário</t>
+  </si>
+  <si>
+    <t>água maquinário</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>contabilidade</t>
+  </si>
+  <si>
+    <t>gás</t>
+  </si>
+  <si>
+    <t>pavio</t>
+  </si>
+  <si>
+    <t>transporte</t>
+  </si>
+  <si>
+    <t>impostos</t>
+  </si>
+  <si>
+    <t>telefone + internet</t>
+  </si>
+  <si>
+    <t>manutenção do site</t>
+  </si>
+  <si>
+    <t>Valor mês</t>
+  </si>
+  <si>
+    <t>quantos kg produzem no mês &gt;&gt;</t>
+  </si>
+  <si>
+    <t>qtd</t>
+  </si>
+  <si>
+    <t>grama</t>
+  </si>
+  <si>
+    <t>Máquina 7 dias</t>
+  </si>
+  <si>
+    <t>Capacidade</t>
+  </si>
+  <si>
+    <t>Tempo (min)</t>
+  </si>
+  <si>
+    <t>Máquina palito</t>
+  </si>
+  <si>
+    <t>Quantidade (g) / vela</t>
+  </si>
+  <si>
+    <t>Quantidade de parafina investida (kg)</t>
+  </si>
+  <si>
+    <t>Produção diária</t>
+  </si>
+  <si>
+    <t>Horas trabalhadas/dia</t>
+  </si>
+  <si>
+    <t>minutos trabalhados/dia</t>
+  </si>
+  <si>
+    <t>Parafina necessária</t>
+  </si>
+  <si>
+    <t>Custo parafina necessária</t>
+  </si>
+  <si>
+    <t>Produção mensal qtd</t>
+  </si>
+  <si>
+    <t>Quantidade parafina necessária (kg)</t>
+  </si>
+  <si>
+    <t>Faturamento mensal</t>
+  </si>
+  <si>
+    <t>Vela 7 dias</t>
+  </si>
+  <si>
+    <t>Vela palito</t>
+  </si>
+  <si>
+    <t>Lucro</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>percentual</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Mara e mãe</t>
+  </si>
+  <si>
+    <t>Walisson</t>
+  </si>
+  <si>
+    <t>Retorno sobre o investimento</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Gastos com pessoal</t>
+  </si>
+  <si>
+    <t>PRI em anos</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; significa que a cada R$1,00, obtivemos 0,54 de retorno</t>
+  </si>
+  <si>
+    <t>Margem de contribuição - vela 7 dias</t>
+  </si>
+  <si>
+    <t>Custo total = gastototal / qtd produzida (kg)</t>
+  </si>
+  <si>
+    <t>Margem de contribuição - velas palito</t>
+  </si>
+  <si>
+    <t>Custo parafina 7 dias</t>
+  </si>
+  <si>
+    <t>Custo parafina velas palito</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; custo da parafina para cálculo da margem de contribuição</t>
+  </si>
+  <si>
+    <t>Receita líquida</t>
+  </si>
+  <si>
+    <t>parei aqui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,8 +795,13 @@
       <color theme="0"/>
       <name val="Arial unicode"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,12 +845,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,30 +885,66 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -635,6 +955,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/dialogsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<dialogsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="5.25" customHeight="1"/>
+  <sheetProtection sheet="1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</dialogsheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1537,6 +1869,407 @@
       </c>
       <c r="D59" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="11.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="16"/>
+    <col min="9" max="9" width="32.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="16"/>
+    <col min="12" max="12" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13">
+      <c r="A3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="30">
+        <f>F22/K5</f>
+        <v>7.1508550685117411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="16">
+        <f>kgparafina</f>
+        <v>6873.7416000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="16">
+        <v>35</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="16">
+        <v>100</v>
+      </c>
+      <c r="E6" s="16">
+        <f>(35*10)/1000</f>
+        <v>0.35</v>
+      </c>
+      <c r="F6" s="33">
+        <f>E6*kgparafina</f>
+        <v>2405.8095600000001</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="16">
+        <v>2.9</v>
+      </c>
+      <c r="K7" s="30">
+        <f>K3*0.26</f>
+        <v>1.8592223178130527</v>
+      </c>
+      <c r="L7" s="29">
+        <f>J7*qtd7dias</f>
+        <v>32151.371999999996</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="16">
+        <v>6500</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="16">
+        <f>B8/D8</f>
+        <v>6.5</v>
+      </c>
+      <c r="F8" s="33">
+        <f>E8*kgparafina</f>
+        <v>44679.320400000004</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="16">
+        <v>10.9</v>
+      </c>
+      <c r="K8" s="30">
+        <f>K3</f>
+        <v>7.1508550685117411</v>
+      </c>
+      <c r="L8" s="29">
+        <f>J8*qtdpalitokg</f>
+        <v>43504.132320000004</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="33">
+        <v>150</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="29">
+        <f>(J7*qtd7dias)+(J8*qtdpalitokg)</f>
+        <v>75655.504320000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="33">
+        <v>418</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="30">
+        <f>J10-F22</f>
+        <v>26502.374360000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="33">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="33">
+        <v>200</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="30">
+        <f>F22-F8</f>
+        <v>4473.8095600000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="33">
+        <v>500</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="F22" s="32">
+        <f>SUM(F6:F20)</f>
+        <v>49153.129960000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B14:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="32">
+        <f>(B2*lucro)</f>
+        <v>7950.7123080000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="32">
+        <f>(B3*lucro)</f>
+        <v>7950.7123080000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="32">
+        <f>(B4*lucro)</f>
+        <v>6625.5935900000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="32">
+        <f>(B5*lucro)</f>
+        <v>3975.3561540000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="7">
+        <f>(180000/lucro)</f>
+        <v>6.791844291192028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="15">
+        <f>('Custo de Produção'!J10-'Custo de Produção'!F22)/'Custo de Produção'!F22</f>
+        <v>0.53917979143072248</v>
+      </c>
+      <c r="C13" s="34">
+        <f>(B13*100%)</f>
+        <v>0.53917979143072248</v>
+      </c>
+      <c r="E13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="15">
+        <f>'Custo de Produção'!L7-('Custo de Produção'!F22-'Capacidade produtiva'!J9)</f>
+        <v>8941.0732399999906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="15">
+        <f>'Custo de Produção'!L8-('Custo de Produção'!F22-'Capacidade produtiva'!J8)</f>
+        <v>13087.491559999999</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +2364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
@@ -1641,14 +2376,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1670,7 +2477,7 @@
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1728,24 +2535,15 @@
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="1">
-        <v>169</v>
-      </c>
-      <c r="F3">
-        <f>H3-G3</f>
-        <v>1669</v>
-      </c>
-      <c r="G3">
-        <v>507</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2176</v>
-      </c>
+        <v>1482</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="L3" s="1">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="P3" s="2">
         <v>8</v>
@@ -1764,31 +2562,31 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6">
         <f>E3*21</f>
-        <v>3549</v>
+        <v>31122</v>
       </c>
       <c r="F6">
         <f>F3*21</f>
-        <v>35049</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>G3*21</f>
-        <v>10647</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>H3*21</f>
-        <v>45696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -1806,18 +2604,18 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1">
         <v>260</v>
       </c>
@@ -1826,11 +2624,14 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="O11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="2:17">
       <c r="D12" t="s">
@@ -1838,33 +2639,36 @@
       </c>
       <c r="E12" s="6">
         <f>(E10*$E$3)/1000</f>
-        <v>43.94</v>
+        <v>385.32</v>
       </c>
       <c r="F12" s="6">
         <f>(F10*$F$3)/1000</f>
-        <v>58.414999999999999</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6">
         <f>(F10*G3)/1000</f>
-        <v>17.745000000000001</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="O13" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14">
         <v>0.16</v>
       </c>
@@ -1880,22 +2684,40 @@
       <c r="L14" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="J15" s="12">
         <f>(E6*1000)/$H$34</f>
-        <v>1407.1606994171525</v>
+        <v>3846.1538461538462</v>
       </c>
       <c r="K15" s="12">
         <f>(F6*1000)/$H$34</f>
-        <v>13896.752706078269</v>
+        <v>0</v>
       </c>
       <c r="L15" s="12">
         <f>(G6*1000)/$H$34</f>
-        <v>4221.4820982514575</v>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>5700</v>
+      </c>
+      <c r="P15">
+        <v>6720</v>
+      </c>
+      <c r="Q15">
+        <v>17280</v>
       </c>
     </row>
     <row r="16" spans="2:17">
@@ -1903,7 +2725,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:17">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
@@ -1911,11 +2733,11 @@
       </c>
       <c r="E17" s="10">
         <f>(E14*$E$3)/1000</f>
-        <v>2.7039999999999998E-2</v>
+        <v>0.23712</v>
       </c>
       <c r="F17" s="10">
         <f>(F14*$F$3)/1000</f>
-        <v>0.26704</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>127</v>
@@ -1923,56 +2745,82 @@
       <c r="K17" s="12">
         <v>487</v>
       </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="16" t="s">
+      <c r="O17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="K19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="16" t="s">
+      <c r="O19">
+        <f>O15*22</f>
+        <v>125400</v>
+      </c>
+      <c r="P19">
+        <f>P15*22</f>
+        <v>147840</v>
+      </c>
+      <c r="Q19">
+        <f>Q15*22</f>
+        <v>380160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="16" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26">
         <f>(1*$E$3)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="16" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" t="s">
         <v>88</v>
       </c>
@@ -1980,45 +2828,45 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+    <row r="30" spans="2:17">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="7">
         <f>(E3*$P$8)*15%+E3</f>
-        <v>4427.8</v>
+        <v>38828.400000000001</v>
       </c>
       <c r="F30" s="7">
         <f>(F3*$P$8)*15%+F3</f>
-        <v>43727.799999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="18">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22">
         <f>(21*E12)</f>
-        <v>922.74</v>
-      </c>
-      <c r="F32" s="18">
+        <v>8091.72</v>
+      </c>
+      <c r="F32" s="22">
         <f>(21*F12)</f>
-        <v>1226.7149999999999</v>
-      </c>
-      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
         <f>(21*G12)</f>
-        <v>372.64500000000004</v>
+        <v>0</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -2035,25 +2883,25 @@
       </c>
       <c r="H34" s="13">
         <f>SUM(E32:G33)</f>
-        <v>2522.1</v>
+        <v>8091.72</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24">
         <f>E17*21</f>
-        <v>0.56784000000000001</v>
+        <v>4.9795199999999999</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3"/>
@@ -2061,32 +2909,24 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="18">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22">
         <f>E26*21</f>
-        <v>3549</v>
+        <v>31122</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:E33"/>
     <mergeCell ref="B36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="B39:D40"/>
@@ -2098,6 +2938,14 @@
     <mergeCell ref="B19:D20"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B25:D26"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2110,30 +2958,35 @@
   <dimension ref="A3:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="15">
-      <c r="G3" s="22" t="s">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>3500</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="K3" s="21" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
       <c r="N3" t="s">
         <v>137</v>
       </c>
@@ -2154,7 +3007,7 @@
         <v>95</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
@@ -2212,7 +3065,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>418</v>
       </c>
       <c r="C7" t="s">
         <v>111</v>
@@ -2223,12 +3076,12 @@
         <v>112</v>
       </c>
       <c r="G8" s="14">
-        <f>G6*'Capacidade de Produção'!J15</f>
-        <v>4080.7660283097421</v>
+        <f>G6*'Capacidade de Produção'!O19</f>
+        <v>363660</v>
       </c>
       <c r="H8" s="14">
-        <f>H6*'Capacidade de Produção'!K17</f>
-        <v>5308.3</v>
+        <f>H6*'Capacidade de Produção'!P19</f>
+        <v>1611456</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2236,7 +3089,7 @@
         <v>113</v>
       </c>
       <c r="B9">
-        <v>6500</v>
+        <v>30000</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -2287,7 +3140,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2300,36 +3153,50 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B16">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="5">
-        <f>SUM(B4:B16)</f>
-        <v>7702</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B18" s="5">
+        <f>SUM(B3:B17)</f>
+        <v>45304</v>
+      </c>
+      <c r="C18" s="12">
+        <f>B18-30000</f>
+        <v>15304</v>
+      </c>
+      <c r="G18" t="s">
         <v>128</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I18" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="12">
+        <f>C18*12</f>
+        <v>183648</v>
+      </c>
+      <c r="G20" s="15">
+        <f>SUM(G8:H8)-B18</f>
+        <v>1929812</v>
+      </c>
+      <c r="I20" s="12">
+        <f>SUM(G10:H10)-B18</f>
+        <v>-21640.7065</v>
+      </c>
+    </row>
     <row r="21" spans="1:9">
-      <c r="G21" s="15">
-        <f>SUM(G8:H8)-B19</f>
-        <v>1687.0660283097423</v>
-      </c>
-      <c r="I21" s="12">
-        <f>SUM(G10:H10)-B19</f>
-        <v>15961.2935</v>
-      </c>
+      <c r="B21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2342,24 +3209,381 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="5">
+        <f>SUM(B4:B25)</f>
+        <v>99757</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18" style="16" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="7">
+        <f>(30000/6.5)</f>
+        <v>4615.3846153846152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="I2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="16">
+        <v>24</v>
+      </c>
+      <c r="D3" s="19">
+        <v>260</v>
+      </c>
+      <c r="E3" s="26">
+        <f>($J$3/C4)*C3</f>
+        <v>503.93999999999994</v>
+      </c>
+      <c r="F3" s="26">
+        <f>E3*22</f>
+        <v>11086.679999999998</v>
+      </c>
+      <c r="G3" s="27">
+        <f>(F3*D3)/1000</f>
+        <v>2882.5367999999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="5">
+        <f>(J2*60)-5%</f>
+        <v>419.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="14">
+        <f>(G3+G6)*6.5</f>
+        <v>44679.320400000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="16">
+        <v>216</v>
+      </c>
+      <c r="D6" s="19">
+        <v>30</v>
+      </c>
+      <c r="E6" s="26">
+        <f>($J$3/C7)*C6</f>
+        <v>6047.28</v>
+      </c>
+      <c r="F6" s="26">
+        <f>E6*22</f>
+        <v>133040.16</v>
+      </c>
+      <c r="G6" s="27">
+        <f>(F6*D6)/1000</f>
+        <v>3991.2048000000004</v>
+      </c>
+      <c r="I6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="7">
+        <f>(G3+G6)</f>
+        <v>6873.7416000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="16">
+        <v>15</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="I8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8">
+        <f>6.5*G3</f>
+        <v>18736.4892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="E9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="28">
+        <f>F6*0.03</f>
+        <v>3991.2048</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="I9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9">
+        <f>6.5*qtdpalitokg</f>
+        <v>25942.831200000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Mapeamento.xlsx
+++ b/Mapeamento.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Custos" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Plano de Vendas" sheetId="4" r:id="rId4"/>
     <sheet name="Apresentação da Empresa" sheetId="5" r:id="rId5"/>
     <sheet name="Capacidade de Produção" sheetId="6" r:id="rId6"/>
-    <sheet name="Caixa de diálogo1" sheetId="12" r:id="rId7"/>
-    <sheet name="Gastos mensais" sheetId="7" r:id="rId8"/>
-    <sheet name="investimento inicial" sheetId="11" r:id="rId9"/>
+    <sheet name="Gastos mensais" sheetId="7" r:id="rId7"/>
+    <sheet name="investimento inicial" sheetId="11" r:id="rId8"/>
+    <sheet name="Viabilidade" sheetId="14" r:id="rId9"/>
     <sheet name="Capacidade produtiva" sheetId="13" r:id="rId10"/>
     <sheet name="Custo de Produção" sheetId="9" r:id="rId11"/>
     <sheet name="Distribuição lucros" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'investimento inicial'!$A$1:$E$27</definedName>
     <definedName name="kgparafina">'Capacidade produtiva'!$J$6</definedName>
     <definedName name="lucro">'Custo de Produção'!$J$12</definedName>
     <definedName name="qtd7dias">'Capacidade produtiva'!$F$3</definedName>
@@ -66,8 +67,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Walisson Sobral</author>
+  </authors>
+  <commentList>
+    <comment ref="B94" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Walisson Sobral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+considerando do faturamento: 42% - vela 7 dias  e 43,54% vela palito
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="281">
   <si>
     <t>Despesas com Parafina</t>
   </si>
@@ -723,9 +759,6 @@
     <t>Gastos com pessoal</t>
   </si>
   <si>
-    <t>PRI em anos</t>
-  </si>
-  <si>
     <t>&gt;&gt;&gt; significa que a cada R$1,00, obtivemos 0,54 de retorno</t>
   </si>
   <si>
@@ -751,19 +784,182 @@
   </si>
   <si>
     <t>parei aqui</t>
+  </si>
+  <si>
+    <t>PRI em meses</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>VIABILIDADE DE NEGÓCIO</t>
+  </si>
+  <si>
+    <t>Investimentos iniciais</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>Despesas Operacionais</t>
+  </si>
+  <si>
+    <t>Previsão de faturamento / capacidade produtiva</t>
+  </si>
+  <si>
+    <t>método</t>
+  </si>
+  <si>
+    <t>mensal</t>
+  </si>
+  <si>
+    <t>implantação</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>potes</t>
+  </si>
+  <si>
+    <t>neste caso, é necessário comprar 1 kg de cada cor, ou variado</t>
+  </si>
+  <si>
+    <t>neste caso, precisamos pedir no mínimo 25kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> da pra fazer a quantidade por rolo</t>
+  </si>
+  <si>
+    <t>único</t>
+  </si>
+  <si>
+    <t>Celofane</t>
+  </si>
+  <si>
+    <t>Quanto usa por vela ????</t>
+  </si>
+  <si>
+    <t>POPP</t>
+  </si>
+  <si>
+    <t>Embalagem para maços</t>
+  </si>
+  <si>
+    <t>Sub-total</t>
+  </si>
+  <si>
+    <t>Derretedor de Parafina</t>
+  </si>
+  <si>
+    <t>Domínio do site</t>
+  </si>
+  <si>
+    <t>Contabilidade</t>
+  </si>
+  <si>
+    <t>Despesas financeiras</t>
+  </si>
+  <si>
+    <t>Software mensal</t>
+  </si>
+  <si>
+    <t>Considerando quantas ton de parafina ?</t>
+  </si>
+  <si>
+    <t>qtd mensal</t>
+  </si>
+  <si>
+    <t>qtd mensal (kg)</t>
+  </si>
+  <si>
+    <t>Custos Diretos (Produtivos)</t>
+  </si>
+  <si>
+    <t>Velas palito</t>
+  </si>
+  <si>
+    <t>Valor s IR</t>
+  </si>
+  <si>
+    <t>Valor c IR</t>
+  </si>
+  <si>
+    <t>Lucro líquico sob o faturamento</t>
+  </si>
+  <si>
+    <t>Dora e Mara</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Custos indiretos (fixos)</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Diretor executivo</t>
+  </si>
+  <si>
+    <t>Diretor comercial</t>
+  </si>
+  <si>
+    <t>Diretor adm.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Fazer o custo individual dos produtos</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Qual é mais lucrativo ?</t>
+  </si>
+  <si>
+    <t>Capital de Giro</t>
+  </si>
+  <si>
+    <t>Valor total</t>
+  </si>
+  <si>
+    <t>Valor de giro</t>
+  </si>
+  <si>
+    <t>Capital de giro ideal</t>
+  </si>
+  <si>
+    <t>Capital de giro necessário</t>
+  </si>
+  <si>
+    <t>Suspiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,8 +992,15 @@
       <name val="Arial unicode"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -821,7 +1024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -844,6 +1047,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -851,7 +1063,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,30 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,6 +1128,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -955,18 +1213,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/dialogsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<dialogsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="5.25" customHeight="1"/>
-  <sheetProtection sheet="1"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
-</dialogsheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1878,10 +2124,237 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18" style="16" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="7">
+        <f>(30000/6.5)</f>
+        <v>4615.3846153846152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="I2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="16">
+        <v>240</v>
+      </c>
+      <c r="D3" s="31">
+        <v>260</v>
+      </c>
+      <c r="E3" s="35">
+        <f>($J$3/C4)*C3</f>
+        <v>5039.3999999999996</v>
+      </c>
+      <c r="F3" s="35">
+        <f>E3*22</f>
+        <v>110866.79999999999</v>
+      </c>
+      <c r="G3" s="36">
+        <f>(F3*D3)/1000</f>
+        <v>28825.367999999995</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="5">
+        <f>(J2*60)-5%</f>
+        <v>419.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="31"/>
+      <c r="B4" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="14">
+        <f>(G3+G6+B14)*6</f>
+        <v>276723.53279999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="16">
+        <v>396</v>
+      </c>
+      <c r="D6" s="31">
+        <v>30</v>
+      </c>
+      <c r="E6" s="35">
+        <f>($J$3/C7)*C6</f>
+        <v>11086.68</v>
+      </c>
+      <c r="F6" s="35">
+        <f>E6*22</f>
+        <v>243906.96000000002</v>
+      </c>
+      <c r="G6" s="36">
+        <f>((F6*D6)/1000)</f>
+        <v>7317.2088000000003</v>
+      </c>
+      <c r="I6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="7">
+        <f>(G3+G6+B14)</f>
+        <v>46120.588799999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="31"/>
+      <c r="B7" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="16">
+        <v>15</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="I8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="14">
+        <f>6*G3</f>
+        <v>172952.20799999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="E9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="20">
+        <f>(F6*0.03)</f>
+        <v>7317.2088000000003</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="I9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="14">
+        <f>6.5*qtdpalitokg</f>
+        <v>47561.857199999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="31">
+        <f>qtd7dias*3</f>
+        <v>332600.39999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="20">
+        <f>B11*0.03</f>
+        <v>9978.0119999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1889,7 +2362,7 @@
     <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="16"/>
     <col min="5" max="5" width="11.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="16"/>
     <col min="9" max="9" width="32.75" style="16" bestFit="1" customWidth="1"/>
@@ -1905,11 +2378,11 @@
         <v>169</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="K3" s="30">
+        <v>220</v>
+      </c>
+      <c r="K3" s="22">
         <f>F22/K5</f>
-        <v>7.1508550685117411</v>
+        <v>6.8948389765570379</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1928,7 +2401,7 @@
       <c r="E5" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>188</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -1939,7 +2412,7 @@
       </c>
       <c r="K5" s="16">
         <f>kgparafina</f>
-        <v>6873.7416000000003</v>
+        <v>46120.588799999998</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1959,9 +2432,9 @@
         <f>(35*10)/1000</f>
         <v>0.35</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="25">
         <f>E6*kgparafina</f>
-        <v>2405.8095600000001</v>
+        <v>16142.206079999998</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>173</v>
@@ -1977,16 +2450,16 @@
       <c r="J7" s="16">
         <v>2.9</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="22">
         <f>K3*0.26</f>
-        <v>1.8592223178130527</v>
-      </c>
-      <c r="L7" s="29">
+        <v>1.79265813390483</v>
+      </c>
+      <c r="L7" s="21">
         <f>J7*qtd7dias</f>
-        <v>32151.371999999996</v>
+        <v>321513.71999999997</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2006,9 +2479,9 @@
         <f>B8/D8</f>
         <v>6.5</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="25">
         <f>E8*kgparafina</f>
-        <v>44679.320400000004</v>
+        <v>299783.8272</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>207</v>
@@ -2016,16 +2489,16 @@
       <c r="J8" s="16">
         <v>10.9</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="22">
         <f>K3</f>
-        <v>7.1508550685117411</v>
-      </c>
-      <c r="L8" s="29">
+        <v>6.8948389765570379</v>
+      </c>
+      <c r="L8" s="21">
         <f>J8*qtdpalitokg</f>
-        <v>43504.132320000004</v>
+        <v>79757.575920000003</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2037,22 +2510,22 @@
       <c r="A10" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="25">
         <v>150</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="21">
         <f>(J7*qtd7dias)+(J8*qtdpalitokg)</f>
-        <v>75655.504320000007</v>
+        <v>401271.29591999995</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="25">
         <v>150</v>
       </c>
     </row>
@@ -2060,22 +2533,22 @@
       <c r="A12" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="25">
         <v>418</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="22">
         <f>J10-F22</f>
-        <v>26502.374360000002</v>
+        <v>83277.262639999972</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="25">
         <v>350</v>
       </c>
     </row>
@@ -2083,15 +2556,15 @@
       <c r="A14" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="25">
         <v>200</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="30">
+      <c r="I14" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" s="22">
         <f>F22-F8</f>
-        <v>4473.8095600000015</v>
+        <v>18210.206079999974</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2103,18 +2576,18 @@
       <c r="A16" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="25">
         <v>500</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="25">
         <v>70</v>
       </c>
     </row>
@@ -2122,7 +2595,7 @@
       <c r="A18" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="25">
         <v>150</v>
       </c>
     </row>
@@ -2130,7 +2603,7 @@
       <c r="A19" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="25">
         <v>80</v>
       </c>
     </row>
@@ -2140,9 +2613,9 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="F22" s="32">
+      <c r="F22" s="24">
         <f>SUM(F6:F20)</f>
-        <v>49153.129960000006</v>
+        <v>317994.03327999997</v>
       </c>
     </row>
   </sheetData>
@@ -2150,12 +2623,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B14:B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2172,7 +2645,7 @@
       <c r="B1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2180,48 +2653,48 @@
       <c r="A2" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="23">
         <v>0.3</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="24">
         <f>(B2*lucro)</f>
-        <v>7950.7123080000001</v>
+        <v>24983.178791999992</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="23">
         <v>0.3</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="24">
         <f>(B3*lucro)</f>
-        <v>7950.7123080000001</v>
+        <v>24983.178791999992</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="23">
         <v>0.25</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="24">
         <f>(B4*lucro)</f>
-        <v>6625.5935900000004</v>
+        <v>20819.315659999993</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="23">
         <v>0.15</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="24">
         <f>(B5*lucro)</f>
-        <v>3975.3561540000001</v>
+        <v>12491.589395999996</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2231,11 +2704,11 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B12" s="7">
         <f>(180000/lucro)</f>
-        <v>6.791844291192028</v>
+        <v>2.1614543309153138</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2244,32 +2717,35 @@
       </c>
       <c r="B13" s="15">
         <f>('Custo de Produção'!J10-'Custo de Produção'!F22)/'Custo de Produção'!F22</f>
-        <v>0.53917979143072248</v>
-      </c>
-      <c r="C13" s="34">
+        <v>0.26188309818591066</v>
+      </c>
+      <c r="C13" s="26">
         <f>(B13*100%)</f>
-        <v>0.53917979143072248</v>
+        <v>0.26188309818591066</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="15">
         <f>'Custo de Produção'!L7-('Custo de Produção'!F22-'Capacidade produtiva'!J9)</f>
-        <v>8941.0732399999906</v>
+        <v>51081.543919999967</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="15">
         <f>'Custo de Produção'!L8-('Custo de Produção'!F22-'Capacidade produtiva'!J8)</f>
-        <v>13087.491559999999</v>
+        <v>-65284.249359999987</v>
       </c>
     </row>
   </sheetData>
@@ -2504,11 +2980,11 @@
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="J2" s="1" t="s">
@@ -2531,9 +3007,9 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1">
         <v>1482</v>
       </c>
@@ -2562,16 +3038,16 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6">
         <f>E3*21</f>
         <v>31122</v>
@@ -2604,18 +3080,18 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="1">
         <v>260</v>
       </c>
@@ -2624,11 +3100,11 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
       <c r="O11" t="s">
         <v>149</v>
       </c>
@@ -2649,26 +3125,26 @@
         <f>(F10*G3)/1000</f>
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
       <c r="O13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14">
         <v>0.16</v>
       </c>
@@ -2695,9 +3171,9 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="J15" s="12">
         <f>(E6*1000)/$H$34</f>
         <v>3846.1538461538462</v>
@@ -2761,11 +3237,11 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="K19" t="s">
         <v>126</v>
       </c>
@@ -2783,44 +3259,44 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26">
         <f>(1*$E$3)</f>
         <v>1482</v>
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" t="s">
         <v>88</v>
       </c>
@@ -2829,9 +3305,9 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="7">
         <f>(E3*$P$8)*15%+E3</f>
         <v>38828.400000000001</v>
@@ -2842,35 +3318,35 @@
       </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="22">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="30">
         <f>(21*E12)</f>
         <v>8091.72</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="30">
         <f>(21*F12)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="30">
         <f>(21*G12)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="8"/>
@@ -2887,21 +3363,21 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29">
         <f>E17*21</f>
         <v>4.9795199999999999</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3"/>
@@ -2909,24 +3385,32 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="30">
         <f>E26*21</f>
         <v>31122</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="B36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="B39:D40"/>
@@ -2938,14 +3422,6 @@
     <mergeCell ref="B19:D20"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B25:D26"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2977,16 +3453,16 @@
       <c r="B3">
         <v>3500</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="K3" s="20" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="K3" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
       <c r="N3" t="s">
         <v>137</v>
       </c>
@@ -3209,381 +3685,2112 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B28"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="47">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="47">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="47">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="47">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="47">
+        <f>(6*D8)*1000</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9">
+        <f>E9/350</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="47">
+        <f>(0.35*D8)*1000</f>
+        <v>1750</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="46">
+        <f>((qtdpalito)*0.15)/1000+5.04</f>
+        <v>41.626044</v>
+      </c>
+      <c r="E10" s="48">
+        <f>D10*16.5</f>
+        <v>686.82972600000005</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="7">
+        <f>((D8*41%)*1000)/0.26</f>
+        <v>7884.6153846153848</v>
+      </c>
+      <c r="E11" s="47">
+        <f>(129.69/3000)*D11</f>
+        <v>340.85192307692307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>246</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" s="47">
+        <f>IF(D8=5,0.1*8077,0.1*qtd7dias)</f>
+        <v>807.7</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>139</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="47">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="47">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>141</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="47">
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="47">
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="47">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>143</v>
       </c>
-      <c r="B19">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="47">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>144</v>
       </c>
-      <c r="B20">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>145</v>
       </c>
-      <c r="B21">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="B22">
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="47">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>147</v>
       </c>
-      <c r="B23">
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="47">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>148</v>
       </c>
-      <c r="B24">
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="47">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>155</v>
       </c>
-      <c r="B25">
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="47">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="47">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="47">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="5">
-        <f>SUM(B4:B25)</f>
-        <v>99757</v>
+      <c r="E32" s="47">
+        <f>SUM(E2:E29)</f>
+        <v>114893.38164907692</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E27"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="13.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="16"/>
-    <col min="4" max="4" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="38" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="9" style="38"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="7">
-        <f>(30000/6.5)</f>
-        <v>4615.3846153846152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="I2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D9" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E9" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F9" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D10" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E10" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F10" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D11" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E11" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F11" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))</f>
+        <v>implantação</v>
+      </c>
+      <c r="D12" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E12" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F12" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))</f>
+        <v>implantação</v>
+      </c>
+      <c r="D13" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E13" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F13" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D14" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E14" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F14" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D15" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0)))</f>
+        <v>ton</v>
+      </c>
+      <c r="E15" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F15" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D16" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0)))</f>
+        <v>potes</v>
+      </c>
+      <c r="E16" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D17" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0)))</f>
+        <v>kg</v>
+      </c>
+      <c r="E17" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
+        <v>41.626044</v>
+      </c>
+      <c r="F17" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
+        <v>686.82972600000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D18" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E18" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
+        <v>7884.6153846153848</v>
+      </c>
+      <c r="F18" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
+        <v>340.85192307692307</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D19" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E19" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D20" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0)))</f>
+        <v>kg</v>
+      </c>
+      <c r="E20" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
+        <v>807.7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D21" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E21" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D22" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E22" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D23" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E23" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D24" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E24" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D25" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E25" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D26" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E26" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D27" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E27" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D28" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E28" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D29" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E29" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D30" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E30" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D31" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="E31" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="43">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E32" s="49">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D33" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E33" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F33" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D34" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E34" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F34" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="43" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D35" s="43" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="E35" s="49" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="F35" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="E36" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="40">
+        <f>SUM(F9:F31)</f>
+        <v>114265.38164907692</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B59,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B60,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B61,'investimento inicial'!$A:$A,0))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B62,'investimento inicial'!$A:$A,0))</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B63,'investimento inicial'!$A:$A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B64,'investimento inicial'!$A:$A,0))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B65,'investimento inicial'!$A:$A,0))</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B66,'investimento inicial'!$A:$A,0))</f>
+        <v>686.82972600000005</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B67,'investimento inicial'!$A:$A,0))</f>
+        <v>340.85192307692307</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B68,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B69,'investimento inicial'!$A:$A,0))</f>
+        <v>807.7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B70,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B71,'investimento inicial'!$A:$A,0))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B72,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B73,'investimento inicial'!$A:$A,0))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B74,'investimento inicial'!$A:$A,0))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="51">
+        <f>SUM(F59:F74)</f>
+        <v>37172.381649076924</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="51"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="51"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="38">
+        <f>'investimento inicial'!D8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B81,'investimento inicial'!A:A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B82,'investimento inicial'!A:A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B83,'investimento inicial'!A:A,0))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B84,'investimento inicial'!A:A,0))</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B85,'investimento inicial'!A:A,0))</f>
+        <v>686.82972600000005</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B86,'investimento inicial'!A:A,0))</f>
+        <v>340.85192307692307</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B87,'investimento inicial'!A:A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B88,'investimento inicial'!A:A,0))</f>
+        <v>807.7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B89,'investimento inicial'!A:A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B90,'investimento inicial'!A:A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="E91" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" s="40">
+        <f>SUM(F83:F90)</f>
+        <v>34585.381649076917</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="19"/>
+      <c r="C94" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="16">
-        <v>24</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="D94" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" s="40">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="43"/>
+      <c r="D96" s="49">
+        <f>((D79*42%)/0.26)*1000</f>
+        <v>8076.9230769230762</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="F96" s="44">
+        <f>D96*$D$94</f>
+        <v>23423.076923076922</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="26">
-        <f>($J$3/C4)*C3</f>
-        <v>503.93999999999994</v>
-      </c>
-      <c r="F3" s="26">
-        <f>E3*22</f>
-        <v>11086.679999999998</v>
-      </c>
-      <c r="G3" s="27">
-        <f>(F3*D3)/1000</f>
-        <v>2882.5367999999999</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C97" s="43"/>
+      <c r="D97" s="49">
+        <f>(((D79*43.54%)/0.03)*1000)*0.03</f>
+        <v>2177</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="44">
+        <f>F94*D97</f>
+        <v>19375.3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="E98" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F98" s="40">
+        <f>SUM(F96:F97)</f>
+        <v>42798.376923076925</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="44">
+        <f>F98-F75</f>
+        <v>5625.9952740000008</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="51"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="51"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="51"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D116" s="38">
+        <f>'investimento inicial'!D8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B118,'investimento inicial'!A:A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B119,'investimento inicial'!A:A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B120,'investimento inicial'!A:A,0))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B121,'investimento inicial'!A:A,0))</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B122,'investimento inicial'!A:A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="44"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B123,'investimento inicial'!A:A,0))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B124,'investimento inicial'!A:A,0))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B125,'investimento inicial'!A:A,0))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="44">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B126,'investimento inicial'!A:A,0))</f>
         <v>200</v>
       </c>
-      <c r="J3" s="5">
-        <f>(J2*60)-5%</f>
-        <v>419.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="16">
-        <v>20</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="I5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" s="14">
-        <f>(G3+G6)*6.5</f>
-        <v>44679.320400000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="16">
-        <v>216</v>
-      </c>
-      <c r="D6" s="19">
-        <v>30</v>
-      </c>
-      <c r="E6" s="26">
-        <f>($J$3/C7)*C6</f>
-        <v>6047.28</v>
-      </c>
-      <c r="F6" s="26">
-        <f>E6*22</f>
-        <v>133040.16</v>
-      </c>
-      <c r="G6" s="27">
-        <f>(F6*D6)/1000</f>
-        <v>3991.2048000000004</v>
-      </c>
-      <c r="I6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="7">
-        <f>(G3+G6)</f>
-        <v>6873.7416000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="16">
-        <v>15</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="I8" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8">
-        <f>6.5*G3</f>
-        <v>18736.4892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="E9" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="28">
-        <f>F6*0.03</f>
-        <v>3991.2048</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="I9" t="s">
-        <v>224</v>
-      </c>
-      <c r="J9">
-        <f>6.5*qtdpalitokg</f>
-        <v>25942.831200000001</v>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="E127" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" s="40">
+        <f>SUM(F118:F126)</f>
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="F133" s="44">
+        <f>$F$111*E133</f>
+        <v>1687.7985822000003</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="F134" s="44">
+        <f t="shared" ref="F134:F136" si="0">$F$111*E134</f>
+        <v>1687.7985822000003</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="F135" s="44">
+        <f t="shared" si="0"/>
+        <v>1406.4988185000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="F136" s="44">
+        <f t="shared" si="0"/>
+        <v>843.89929110000014</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="51"/>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E141" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="F141" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E142" s="44">
+        <v>500</v>
+      </c>
+      <c r="F142" s="44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="E143" s="44">
+        <v>500</v>
+      </c>
+      <c r="F143" s="44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="E144" s="44">
+        <v>500</v>
+      </c>
+      <c r="F144" s="44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="F149" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="44">
+        <v>43044</v>
+      </c>
+      <c r="F150" s="44">
+        <f>E150/12</f>
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="44">
+        <v>50000</v>
+      </c>
+      <c r="F151" s="44">
+        <f>E151/12</f>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="50"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F152" s="51">
+        <f>F151-F150</f>
+        <v>579.66666666666697</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="50"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="38" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B56:F56"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C&amp;"Brush Script MT,Regular"VELAS CANDIEIRO
+</oddHeader>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Mapeamento.xlsx
+++ b/Mapeamento.xlsx
@@ -21,7 +21,8 @@
     <sheet name="Distribuição lucros" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'investimento inicial'!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'investimento inicial'!$A$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Viabilidade!$B$8:$G$37</definedName>
     <definedName name="kgparafina">'Capacidade produtiva'!$J$6</definedName>
     <definedName name="lucro">'Custo de Produção'!$J$12</definedName>
     <definedName name="qtd7dias">'Capacidade produtiva'!$F$3</definedName>
@@ -73,7 +74,7 @@
     <author>Walisson Sobral</author>
   </authors>
   <commentList>
-    <comment ref="B94" authorId="0">
+    <comment ref="B145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="288">
   <si>
     <t>Despesas com Parafina</t>
   </si>
@@ -946,6 +947,27 @@
   </si>
   <si>
     <t>Suspiro</t>
+  </si>
+  <si>
+    <t>Pagamento à vista</t>
+  </si>
+  <si>
+    <t>Pagamento parcelado</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Máquina velas 9 dias</t>
+  </si>
+  <si>
+    <t>Máquina velas 21 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -957,7 +979,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1063,7 +1085,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,31 +1151,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1181,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,6 +1194,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2175,7 +2206,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="46" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -2184,18 +2215,18 @@
       <c r="C3" s="16">
         <v>240</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="46">
         <v>260</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="54">
         <f>($J$3/C4)*C3</f>
         <v>5039.3999999999996</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="54">
         <f>E3*22</f>
         <v>110866.79999999999</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="55">
         <f>(F3*D3)/1000</f>
         <v>28825.367999999995</v>
       </c>
@@ -2208,17 +2239,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="31"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:10">
       <c r="I5" t="s">
@@ -2230,7 +2261,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="46" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2239,18 +2270,18 @@
       <c r="C6" s="16">
         <v>396</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="46">
         <v>30</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="54">
         <f>($J$3/C7)*C6</f>
         <v>11086.68</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="54">
         <f>E6*22</f>
         <v>243906.96000000002</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="55">
         <f>((F6*D6)/1000)</f>
         <v>7317.2088000000003</v>
       </c>
@@ -2263,17 +2294,17 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="31"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C7" s="16">
         <v>15</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:10">
       <c r="I8" t="s">
@@ -2307,17 +2338,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="46">
         <f>qtd7dias*3</f>
         <v>332600.39999999997</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="16" t="s">
@@ -2332,18 +2363,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2723,7 +2754,7 @@
         <f>(B13*100%)</f>
         <v>0.26188309818591066</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="29" t="s">
         <v>228</v>
       </c>
       <c r="E13" t="s">
@@ -2980,11 +3011,11 @@
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="J2" s="1" t="s">
@@ -3007,9 +3038,9 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1">
         <v>1482</v>
       </c>
@@ -3038,16 +3069,16 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6">
         <f>E3*21</f>
         <v>31122</v>
@@ -3080,18 +3111,18 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="1">
         <v>260</v>
       </c>
@@ -3100,11 +3131,11 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
       <c r="O11" t="s">
         <v>149</v>
       </c>
@@ -3125,26 +3156,26 @@
         <f>(F10*G3)/1000</f>
         <v>0</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
       <c r="O13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14">
         <v>0.16</v>
       </c>
@@ -3171,9 +3202,9 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="J15" s="12">
         <f>(E6*1000)/$H$34</f>
         <v>3846.1538461538462</v>
@@ -3237,11 +3268,11 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="K19" t="s">
         <v>126</v>
       </c>
@@ -3259,44 +3290,44 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26">
         <f>(1*$E$3)</f>
         <v>1482</v>
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" t="s">
         <v>88</v>
       </c>
@@ -3305,9 +3336,9 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="7">
         <f>(E3*$P$8)*15%+E3</f>
         <v>38828.400000000001</v>
@@ -3318,35 +3349,35 @@
       </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="30">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49">
         <f>(21*E12)</f>
         <v>8091.72</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="49">
         <f>(21*F12)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="49">
         <f>(21*G12)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="46" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="8"/>
@@ -3363,21 +3394,21 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51">
         <f>E17*21</f>
         <v>4.9795199999999999</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3"/>
@@ -3385,32 +3416,24 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="30">
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="49">
         <f>E26*21</f>
         <v>31122</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:E33"/>
     <mergeCell ref="B36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="B39:D40"/>
@@ -3422,6 +3445,14 @@
     <mergeCell ref="B19:D20"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B25:D26"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3453,16 +3484,16 @@
       <c r="B3">
         <v>3500</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="K3" s="33" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="K3" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" t="s">
         <v>137</v>
       </c>
@@ -3685,17 +3716,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3711,7 +3742,7 @@
       <c r="D1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="39" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3728,7 +3759,7 @@
       <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="39">
         <v>150</v>
       </c>
     </row>
@@ -3745,7 +3776,7 @@
       <c r="D3" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="39">
         <v>150</v>
       </c>
     </row>
@@ -3762,7 +3793,7 @@
       <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="39">
         <v>45</v>
       </c>
     </row>
@@ -3779,7 +3810,7 @@
       <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="39">
         <v>5200</v>
       </c>
     </row>
@@ -3796,7 +3827,7 @@
       <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="39">
         <v>418</v>
       </c>
     </row>
@@ -3813,7 +3844,7 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="39">
         <v>1000</v>
       </c>
     </row>
@@ -3830,7 +3861,7 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="39">
         <f>(6*D8)*1000</f>
         <v>30000</v>
       </c>
@@ -3849,11 +3880,11 @@
         <f>E9/350</f>
         <v>5</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="39">
         <f>(0.35*D8)*1000</f>
         <v>1750</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="29" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3867,18 +3898,18 @@
       <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="38">
         <f>((qtdpalito)*0.15)/1000+5.04</f>
         <v>41.626044</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="40">
         <f>D10*16.5</f>
         <v>686.82972600000005</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="29" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3896,7 +3927,7 @@
         <f>((D8*41%)*1000)/0.26</f>
         <v>7884.6153846153848</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="39">
         <f>(129.69/3000)*D11</f>
         <v>340.85192307692307</v>
       </c>
@@ -3925,11 +3956,11 @@
       <c r="D13">
         <v>100</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="39">
         <f>IF(D8=5,0.1*8077,0.1*qtd7dias)</f>
         <v>807.7</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="29" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3943,7 +3974,7 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3957,7 +3988,7 @@
       <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="39">
         <v>64</v>
       </c>
     </row>
@@ -3971,7 +4002,7 @@
       <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="39">
         <v>221</v>
       </c>
     </row>
@@ -3988,8 +4019,8 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="47">
-        <v>12000</v>
+      <c r="E17" s="39">
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4005,13 +4036,13 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="47">
-        <v>12000</v>
+      <c r="E18" s="39">
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
         <v>245</v>
@@ -4022,13 +4053,13 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="47">
-        <v>2500</v>
+      <c r="E19" s="39">
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
         <v>245</v>
@@ -4039,13 +4070,13 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="47">
-        <v>30000</v>
+      <c r="E20" s="39">
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
         <v>245</v>
@@ -4054,15 +4085,15 @@
         <v>232</v>
       </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="47">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
         <v>245</v>
@@ -4073,13 +4104,13 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="47">
-        <v>10000</v>
+      <c r="E22" s="39">
+        <v>30000</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
         <v>245</v>
@@ -4088,15 +4119,15 @@
         <v>232</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="47">
-        <v>350</v>
+        <v>2</v>
+      </c>
+      <c r="E23" s="39">
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>245</v>
@@ -4107,61 +4138,61 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="47">
-        <v>800</v>
+      <c r="E24" s="39">
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="47">
-        <v>1500</v>
+        <v>232</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="39">
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
         <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="47">
-        <v>2000</v>
+        <v>232</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="39">
+        <v>800</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="47">
+      <c r="E27" s="39">
         <v>1500</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -4169,13 +4200,13 @@
       <c r="D28" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="47">
-        <v>60</v>
+      <c r="E28" s="39">
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>236</v>
@@ -4186,13 +4217,13 @@
       <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="47">
-        <v>350</v>
+      <c r="E29" s="39">
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
         <v>236</v>
@@ -4203,1590 +4234,2612 @@
       <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="47">
-        <v>200</v>
+      <c r="E30" s="39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="39">
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="47">
-        <f>SUM(E2:E29)</f>
-        <v>114893.38164907692</v>
+      <c r="E34" s="39">
+        <f>SUM(E2:E31)</f>
+        <v>130893.38164907692</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27"/>
+  <autoFilter ref="A1:E29"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G155"/>
+  <dimension ref="A2:H206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="38" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="38" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9" style="38"/>
-    <col min="8" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="1.875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="1.125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30"/>
+    <col min="9" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="39" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="41" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="F8" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="G8" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="1:8">
+      <c r="B9" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="43" t="str">
+      <c r="C9" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E9" s="49" t="str">
+      <c r="F9" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="44">
+      <c r="G9" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:8">
+      <c r="B10" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="43" t="str">
+      <c r="C10" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="D10" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E10" s="49" t="str">
+      <c r="F10" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F10" s="44">
+      <c r="G10" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="1:8">
+      <c r="B11" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="43" t="str">
+      <c r="C11" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="D11" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E11" s="49" t="str">
+      <c r="F11" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F11" s="44">
+      <c r="G11" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:8">
+      <c r="B12" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="43" t="str">
+      <c r="C12" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))</f>
         <v>implantação</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="D12" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E12" s="49" t="str">
+      <c r="F12" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F12" s="44">
+      <c r="G12" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))</f>
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="1:8">
+      <c r="B13" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="43" t="str">
+      <c r="C13" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))</f>
         <v>implantação</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E13" s="49" t="str">
+      <c r="F13" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F13" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))</f>
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="43" t="s">
+      <c r="G13" s="36">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="43" t="str">
+      <c r="C14" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="D14" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E14" s="49" t="str">
+      <c r="F14" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F14" s="44">
+      <c r="G14" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:8">
+      <c r="B15" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="43" t="str">
+      <c r="C15" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0)))</f>
         <v>ton</v>
       </c>
-      <c r="E15" s="49">
+      <c r="F15" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
         <v>5</v>
       </c>
-      <c r="F15" s="44">
+      <c r="G15" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="43" t="s">
+    <row r="16" spans="1:8">
+      <c r="B16" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="43" t="str">
+      <c r="C16" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="D16" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0)))</f>
         <v>potes</v>
       </c>
-      <c r="E16" s="49">
+      <c r="F16" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
         <v>5</v>
       </c>
-      <c r="F16" s="44">
+      <c r="G16" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
         <v>1750</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="1:8">
+      <c r="B17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="43" t="str">
+      <c r="C17" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D17" s="43" t="str">
+      <c r="D17" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0)))</f>
         <v>kg</v>
       </c>
-      <c r="E17" s="49">
+      <c r="F17" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
         <v>41.626044</v>
       </c>
-      <c r="F17" s="44">
+      <c r="G17" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
         <v>686.82972600000005</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="43" t="s">
+    <row r="18" spans="1:8">
+      <c r="B18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="43" t="str">
+      <c r="C18" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D18" s="43" t="str">
+      <c r="D18" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E18" s="49">
+      <c r="F18" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
         <v>7884.6153846153848</v>
       </c>
-      <c r="F18" s="44">
+      <c r="G18" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
         <v>340.85192307692307</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="43" t="s">
+    <row r="19" spans="1:8">
+      <c r="B19" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="43" t="str">
+      <c r="C19" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D19" s="43" t="str">
+      <c r="D19" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E19" s="49">
+      <c r="F19" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="44">
+      <c r="G19" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="43" t="s">
+    <row r="20" spans="1:8">
+      <c r="B20" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="43" t="str">
+      <c r="C20" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D20" s="43" t="str">
+      <c r="D20" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0)))</f>
         <v>kg</v>
       </c>
-      <c r="E20" s="49">
+      <c r="F20" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
         <v>100</v>
       </c>
-      <c r="F20" s="44">
+      <c r="G20" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
         <v>807.7</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="1:8">
+      <c r="B21" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="43" t="str">
+      <c r="C21" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D21" s="43" t="str">
+      <c r="D21" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E21" s="49">
+      <c r="F21" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="44">
+      <c r="G21" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="1:8">
+      <c r="B22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="43" t="str">
+      <c r="C22" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D22" s="43" t="str">
+      <c r="D22" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E22" s="49">
+      <c r="F22" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="44">
+      <c r="G22" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))</f>
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="43" t="s">
+    <row r="23" spans="1:8">
+      <c r="B23" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="43" t="str">
+      <c r="C23" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D23" s="43" t="str">
+      <c r="D23" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E23" s="49">
+      <c r="F23" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="44">
+      <c r="G23" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))</f>
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="1:8">
+      <c r="B24" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="43" t="str">
+      <c r="C24" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D24" s="43" t="str">
+      <c r="D24" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E24" s="49">
+      <c r="F24" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))</f>
         <v>1</v>
       </c>
-      <c r="F24" s="44">
+      <c r="G24" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="43" t="s">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="43" t="str">
+      <c r="C25" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D25" s="43" t="str">
+      <c r="D25" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E25" s="49">
+      <c r="F25" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))</f>
         <v>1</v>
       </c>
-      <c r="F25" s="44">
+      <c r="G25" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="43" t="str">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="28" customFormat="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D26" s="43" t="str">
+      <c r="D26" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E26" s="49">
+      <c r="F26" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))</f>
         <v>1</v>
       </c>
-      <c r="F26" s="44">
+      <c r="G26" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="43" t="str">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" s="28" customFormat="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D27" s="43" t="str">
+      <c r="D27" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E27" s="49">
+      <c r="F27" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
         <v>1</v>
       </c>
-      <c r="F27" s="44">
+      <c r="G27" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="43" t="str">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D28" s="43" t="str">
+      <c r="D28" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E28" s="49">
+      <c r="F28" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F28" s="44">
+        <v>1</v>
+      </c>
+      <c r="G28" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="43" t="str">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D29" s="43" t="str">
+      <c r="D29" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E29" s="49">
+      <c r="F29" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
         <v>1</v>
       </c>
-      <c r="F29" s="44">
+      <c r="G29" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="43" t="str">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D30" s="43" t="str">
+      <c r="D30" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E30" s="49">
+      <c r="F30" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="44">
+        <v>2</v>
+      </c>
+      <c r="G30" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="43" t="str">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
-      <c r="D31" s="43" t="str">
+      <c r="D31" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0)))</f>
         <v>un</v>
       </c>
-      <c r="E31" s="49">
+      <c r="F31" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
         <v>1</v>
       </c>
-      <c r="F31" s="44">
+      <c r="G31" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="35" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
+        <v>único</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="35" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0)))</f>
+        <v>un</v>
+      </c>
+      <c r="F32" s="41">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="43" t="s">
+    <row r="33" spans="1:8">
+      <c r="B33" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="43">
-        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
+      <c r="C33" s="35">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
-      <c r="D32" s="43" t="str">
-        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="E32" s="49">
-        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="43" t="str">
-        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
-        <v>único</v>
-      </c>
-      <c r="D33" s="43" t="str">
+      <c r="D33" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E33" s="49" t="str">
+      <c r="F33" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
-        <v>-</v>
-      </c>
-      <c r="F33" s="44">
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="43" t="str">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
-        <v>mensal</v>
-      </c>
-      <c r="D34" s="43" t="str">
+        <v>único</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E34" s="49" t="str">
+      <c r="F34" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F34" s="44">
+      <c r="G34" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="43" t="str">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
-      <c r="D35" s="43" t="str">
+      <c r="D35" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="E35" s="49" t="str">
+      <c r="F35" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="44">
+      <c r="G35" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="35" t="str">
+        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))</f>
+        <v>mensal</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="35" t="str">
+        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="F36" s="41" t="str">
+        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))</f>
+        <v>-</v>
+      </c>
+      <c r="G36" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="E36" s="38" t="s">
+    <row r="37" spans="1:8">
+      <c r="F37" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="F36" s="40">
-        <f>SUM(F9:F31)</f>
-        <v>114265.38164907692</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="41" t="s">
+      <c r="G37" s="32">
+        <f>SUM(G9:G36)</f>
+        <v>120543.38164907692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="28" customFormat="1">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:8" s="28" customFormat="1">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8" s="28" customFormat="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="31"/>
+    </row>
+    <row r="43" spans="1:8" s="28" customFormat="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="31"/>
+    </row>
+    <row r="44" spans="1:8" s="28" customFormat="1">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8" s="28" customFormat="1">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" spans="1:8" s="28" customFormat="1">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="31"/>
+    </row>
+    <row r="47" spans="1:8" s="28" customFormat="1">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8" s="28" customFormat="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" spans="1:8" s="28" customFormat="1">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="1:8" s="28" customFormat="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="31"/>
+    </row>
+    <row r="51" spans="1:8" s="28" customFormat="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:8" s="28" customFormat="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:8" s="28" customFormat="1">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="1:8" s="28" customFormat="1">
+      <c r="A54" s="31"/>
+      <c r="B54" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="31"/>
+    </row>
+    <row r="55" spans="1:8" s="28" customFormat="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="31"/>
+    </row>
+    <row r="56" spans="1:8" s="28" customFormat="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="42" t="s">
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="43" t="s">
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="1:8" s="28" customFormat="1">
+      <c r="A57" s="31"/>
+      <c r="B57" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B59,'investimento inicial'!$A:$A,0))</f>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B57,'investimento inicial'!$A:$A,0))</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="43" t="s">
+      <c r="H57" s="31"/>
+    </row>
+    <row r="58" spans="1:8" s="28" customFormat="1">
+      <c r="A58" s="31"/>
+      <c r="B58" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B60,'investimento inicial'!$A:$A,0))</f>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B58,'investimento inicial'!$A:$A,0))</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="43" t="s">
+      <c r="H58" s="31"/>
+    </row>
+    <row r="59" spans="1:8" s="28" customFormat="1">
+      <c r="A59" s="31"/>
+      <c r="B59" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="44">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="36">
+        <v>90</v>
+      </c>
+      <c r="H59" s="31"/>
+    </row>
+    <row r="60" spans="1:8" s="28" customFormat="1">
+      <c r="A60" s="31"/>
+      <c r="B60" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36">
+        <v>418</v>
+      </c>
+      <c r="H60" s="31"/>
+    </row>
+    <row r="61" spans="1:8" s="28" customFormat="1">
+      <c r="A61" s="31"/>
+      <c r="B61" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B61,'investimento inicial'!$A:$A,0))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="44">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="31"/>
+    </row>
+    <row r="62" spans="1:8" s="28" customFormat="1">
+      <c r="A62" s="31"/>
+      <c r="B62" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B62,'investimento inicial'!$A:$A,0))</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="44">
+        <v>30000</v>
+      </c>
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" spans="1:8" s="28" customFormat="1">
+      <c r="A63" s="31"/>
+      <c r="B63" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B63,'investimento inicial'!$A:$A,0))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44">
+        <v>1750</v>
+      </c>
+      <c r="H63" s="31"/>
+    </row>
+    <row r="64" spans="1:8" s="28" customFormat="1">
+      <c r="A64" s="31"/>
+      <c r="B64" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B64,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="44">
+        <v>686.82972600000005</v>
+      </c>
+      <c r="H64" s="31"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B65,'investimento inicial'!$A:$A,0))</f>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="44">
+        <v>340.85192307692307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B66,'investimento inicial'!$A:$A,0))</f>
-        <v>686.82972600000005</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B67,'investimento inicial'!$A:$A,0))</f>
-        <v>340.85192307692307</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="44">
+        <v>807.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B68,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="43" t="s">
+    <row r="69" spans="1:8">
+      <c r="B69" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B69,'investimento inicial'!$A:$A,0))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="28" customFormat="1">
+      <c r="A70" s="31"/>
+      <c r="B70" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B70,'investimento inicial'!$A:$A,0))</f>
+        <v>2500</v>
+      </c>
+      <c r="H70" s="31"/>
+    </row>
+    <row r="71" spans="1:8" s="28" customFormat="1">
+      <c r="A71" s="31"/>
+      <c r="B71" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B71,'investimento inicial'!$A:$A,0))</f>
+        <v>350</v>
+      </c>
+      <c r="H71" s="31"/>
+    </row>
+    <row r="72" spans="1:8" s="28" customFormat="1">
+      <c r="A72" s="31"/>
+      <c r="B72" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B72,'investimento inicial'!$A:$A,0))</f>
+        <v>800</v>
+      </c>
+      <c r="H72" s="31"/>
+    </row>
+    <row r="73" spans="1:8" s="28" customFormat="1">
+      <c r="A73" s="31"/>
+      <c r="B73" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B73,'investimento inicial'!$A:$A,0))</f>
+        <v>2000</v>
+      </c>
+      <c r="H73" s="31"/>
+    </row>
+    <row r="74" spans="1:8" s="28" customFormat="1">
+      <c r="A74" s="31"/>
+      <c r="B74" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B74,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
+      </c>
+      <c r="H74" s="31"/>
+    </row>
+    <row r="75" spans="1:8" s="28" customFormat="1">
+      <c r="A75" s="31"/>
+      <c r="B75" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B75,'investimento inicial'!$A:$A,0))</f>
+        <v>60</v>
+      </c>
+      <c r="H75" s="31"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G76" s="43">
+        <f>SUM(G57:G75)</f>
+        <v>42667.381649076924</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="28" customFormat="1">
+      <c r="A79" s="31"/>
+      <c r="B79" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="31"/>
+    </row>
+    <row r="80" spans="1:8" s="28" customFormat="1">
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="31"/>
+    </row>
+    <row r="81" spans="1:8" s="28" customFormat="1">
+      <c r="A81" s="31"/>
+      <c r="B81" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" s="31"/>
+    </row>
+    <row r="82" spans="1:8" s="28" customFormat="1">
+      <c r="A82" s="31"/>
+      <c r="B82" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B82,'investimento inicial'!$A:$A,0))</f>
+        <v>5200</v>
+      </c>
+      <c r="H82" s="31"/>
+    </row>
+    <row r="83" spans="1:8" s="28" customFormat="1">
+      <c r="A83" s="31"/>
+      <c r="B83" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B83,'investimento inicial'!$A:$A,0))</f>
+        <v>221</v>
+      </c>
+      <c r="H83" s="31"/>
+    </row>
+    <row r="84" spans="1:8" s="28" customFormat="1">
+      <c r="A84" s="31"/>
+      <c r="B84" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B84,'investimento inicial'!$A:$A,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="H84" s="31"/>
+    </row>
+    <row r="85" spans="1:8" s="28" customFormat="1">
+      <c r="A85" s="31"/>
+      <c r="B85" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B85,'investimento inicial'!$A:$A,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="H85" s="31"/>
+    </row>
+    <row r="86" spans="1:8" s="28" customFormat="1">
+      <c r="A86" s="31"/>
+      <c r="B86" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B86,'investimento inicial'!$A:$A,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="H86" s="31"/>
+    </row>
+    <row r="87" spans="1:8" s="28" customFormat="1">
+      <c r="A87" s="31"/>
+      <c r="B87" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B87,'investimento inicial'!$A:$A,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="H87" s="31"/>
+    </row>
+    <row r="88" spans="1:8" s="28" customFormat="1">
+      <c r="A88" s="31"/>
+      <c r="B88" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B88,'investimento inicial'!$A:$A,0))</f>
+        <v>30000</v>
+      </c>
+      <c r="H88" s="31"/>
+    </row>
+    <row r="89" spans="1:8" s="28" customFormat="1">
+      <c r="A89" s="31"/>
+      <c r="B89" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B89,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
+      </c>
+      <c r="H89" s="31"/>
+    </row>
+    <row r="90" spans="1:8" s="28" customFormat="1">
+      <c r="A90" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B90,'investimento inicial'!$A:$A,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="H90" s="31"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G91" s="43">
+        <f>SUM(G82:G90)</f>
+        <v>77921</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="28" customFormat="1">
+      <c r="A92" s="31"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="31"/>
+    </row>
+    <row r="93" spans="1:8" s="28" customFormat="1">
+      <c r="A93" s="31"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="31"/>
+    </row>
+    <row r="94" spans="1:8" s="28" customFormat="1">
+      <c r="A94" s="31"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="31"/>
+    </row>
+    <row r="95" spans="1:8" s="28" customFormat="1">
+      <c r="A95" s="31"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="31"/>
+    </row>
+    <row r="96" spans="1:8" s="28" customFormat="1">
+      <c r="A96" s="31"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="31"/>
+    </row>
+    <row r="97" spans="1:8" s="28" customFormat="1">
+      <c r="A97" s="31"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="31"/>
+    </row>
+    <row r="98" spans="1:8" s="28" customFormat="1">
+      <c r="A98" s="31"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="31"/>
+    </row>
+    <row r="99" spans="1:8" s="28" customFormat="1">
+      <c r="A99" s="31"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="31"/>
+    </row>
+    <row r="100" spans="1:8" s="28" customFormat="1">
+      <c r="A100" s="31"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="31"/>
+    </row>
+    <row r="101" spans="1:8" s="28" customFormat="1">
+      <c r="A101" s="31"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="31"/>
+    </row>
+    <row r="102" spans="1:8" s="28" customFormat="1">
+      <c r="A102" s="31"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="31"/>
+    </row>
+    <row r="103" spans="1:8" s="28" customFormat="1">
+      <c r="A103" s="31"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="31"/>
+    </row>
+    <row r="104" spans="1:8" s="28" customFormat="1">
+      <c r="A104" s="31"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="31"/>
+    </row>
+    <row r="105" spans="1:8" s="28" customFormat="1">
+      <c r="A105" s="31"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="31"/>
+    </row>
+    <row r="106" spans="1:8" s="28" customFormat="1">
+      <c r="A106" s="31"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="31"/>
+    </row>
+    <row r="107" spans="1:8" s="28" customFormat="1">
+      <c r="A107" s="31"/>
+      <c r="B107" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="31"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B110,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B111,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B112,'investimento inicial'!$A:$A,0))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B113,'investimento inicial'!$A:$A,0))</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B114,'investimento inicial'!$A:$A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B115,'investimento inicial'!$A:$A,0))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B116,'investimento inicial'!$A:$A,0))</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B117,'investimento inicial'!$A:$A,0))</f>
+        <v>686.82972600000005</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B118,'investimento inicial'!$A:$A,0))</f>
+        <v>340.85192307692307</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B119,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B69,'investimento inicial'!$A:$A,0))</f>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B120,'investimento inicial'!$A:$A,0))</f>
         <v>807.7</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="43" t="s">
+    <row r="121" spans="2:7">
+      <c r="B121" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B70,'investimento inicial'!$A:$A,0))</f>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B121,'investimento inicial'!$A:$A,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="43" t="s">
+    <row r="122" spans="2:7">
+      <c r="B122" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B71,'investimento inicial'!$A:$A,0))</f>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B122,'investimento inicial'!$A:$A,0))</f>
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="43" t="s">
+    <row r="123" spans="2:7">
+      <c r="B123" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B72,'investimento inicial'!$A:$A,0))</f>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B123,'investimento inicial'!$A:$A,0))</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="43" t="s">
+    <row r="124" spans="2:7">
+      <c r="B124" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B73,'investimento inicial'!$A:$A,0))</f>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B124,'investimento inicial'!$A:$A,0))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="44" t="s">
+    <row r="125" spans="2:7">
+      <c r="B125" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B74,'investimento inicial'!$A:$A,0))</f>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B125,'investimento inicial'!$A:$A,0))</f>
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50" t="s">
+    <row r="126" spans="2:7">
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="F75" s="51">
-        <f>SUM(F59:F74)</f>
+      <c r="G126" s="43">
+        <f>SUM(G110:G125)</f>
         <v>37172.381649076924</v>
       </c>
     </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51"/>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="51"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="39" t="s">
+    <row r="127" spans="2:7">
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="43"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="42"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="43"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="38" t="s">
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="38">
+      <c r="E130" s="30">
         <f>'investimento inicial'!D8</f>
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="41" t="s">
+    <row r="131" spans="2:7">
+      <c r="B131" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="42" t="s">
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="43" t="s">
+    <row r="132" spans="2:7">
+      <c r="B132" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B81,'investimento inicial'!A:A,0))</f>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B132,'investimento inicial'!A:A,0))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="43" t="s">
+    <row r="133" spans="2:7">
+      <c r="B133" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B82,'investimento inicial'!A:A,0))</f>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B133,'investimento inicial'!A:A,0))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="43" t="s">
+    <row r="134" spans="2:7">
+      <c r="B134" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B83,'investimento inicial'!A:A,0))</f>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B134,'investimento inicial'!A:A,0))</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="43" t="s">
+    <row r="135" spans="2:7">
+      <c r="B135" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B84,'investimento inicial'!A:A,0))</f>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B135,'investimento inicial'!A:A,0))</f>
         <v>1750</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="43" t="s">
+    <row r="136" spans="2:7">
+      <c r="B136" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B85,'investimento inicial'!A:A,0))</f>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B136,'investimento inicial'!A:A,0))</f>
         <v>686.82972600000005</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="43" t="s">
+    <row r="137" spans="2:7">
+      <c r="B137" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B86,'investimento inicial'!A:A,0))</f>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B137,'investimento inicial'!A:A,0))</f>
         <v>340.85192307692307</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="43" t="s">
+    <row r="138" spans="2:7">
+      <c r="B138" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B87,'investimento inicial'!A:A,0))</f>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B138,'investimento inicial'!A:A,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="43" t="s">
+    <row r="139" spans="2:7">
+      <c r="B139" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B88,'investimento inicial'!A:A,0))</f>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B139,'investimento inicial'!A:A,0))</f>
         <v>807.7</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="43" t="s">
+    <row r="140" spans="2:7">
+      <c r="B140" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B89,'investimento inicial'!A:A,0))</f>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B140,'investimento inicial'!A:A,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="43" t="s">
+    <row r="141" spans="2:7">
+      <c r="B141" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B90,'investimento inicial'!A:A,0))</f>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B141,'investimento inicial'!A:A,0))</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
-      <c r="E91" s="38" t="s">
+    <row r="142" spans="2:7">
+      <c r="F142" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="F91" s="40">
-        <f>SUM(F83:F90)</f>
+      <c r="G142" s="32">
+        <f>SUM(G134:G141)</f>
         <v>34585.381649076917</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="39" t="s">
+    <row r="144" spans="2:7">
+      <c r="B144" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="19"/>
-      <c r="C94" s="38" t="s">
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="19"/>
+      <c r="C145" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="38">
+      <c r="E145" s="30">
         <v>2.9</v>
       </c>
-      <c r="E94" s="38" t="s">
+      <c r="F145" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F94" s="40">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="41" t="s">
+      <c r="G145" s="32">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41" t="s">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F95" s="42" t="s">
+      <c r="G146" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="43" t="s">
+    <row r="147" spans="2:7">
+      <c r="B147" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="49">
-        <f>((D79*42%)/0.26)*1000</f>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="41">
+        <f>((E130*42%)/0.26)*1000</f>
         <v>8076.9230769230762</v>
       </c>
-      <c r="E96" s="43" t="s">
+      <c r="F147" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="F96" s="44">
-        <f>D96*$D$94</f>
+      <c r="G147" s="36">
+        <f>E147*$E$145</f>
         <v>23423.076923076922</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="43" t="s">
+    <row r="148" spans="2:7">
+      <c r="B148" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="49">
-        <f>(((D79*43.54%)/0.03)*1000)*0.03</f>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="41">
+        <f>(((E130*43.54%)/0.03)*1000)*0.03</f>
         <v>2177</v>
       </c>
-      <c r="E97" s="43" t="s">
+      <c r="F148" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="44">
-        <f>F94*D97</f>
-        <v>19375.3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="E98" s="38" t="s">
+      <c r="G148" s="36">
+        <f>G145*E148</f>
+        <v>23729.3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="F149" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="F98" s="40">
-        <f>SUM(F96:F97)</f>
-        <v>42798.376923076925</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="39" t="s">
+      <c r="G149" s="32">
+        <f>SUM(G147:G148)</f>
+        <v>47152.376923076925</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="41" t="s">
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="42" t="s">
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="43" t="s">
+    <row r="162" spans="2:7">
+      <c r="B162" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="44">
-        <f>F98-F75</f>
-        <v>5625.9952740000008</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="51"/>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="51"/>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="51"/>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="39" t="s">
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="36">
+        <f>G149-G126</f>
+        <v>9979.9952740000008</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="42"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
+      <c r="G163" s="43"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="43"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="43"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="38" t="s">
+      <c r="C166" s="53"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="53"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="53"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D116" s="38">
+      <c r="E167" s="30">
         <f>'investimento inicial'!D8</f>
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="41" t="s">
+    <row r="168" spans="2:7">
+      <c r="B168" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="42" t="s">
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="43" t="s">
+    <row r="169" spans="2:7">
+      <c r="B169" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B118,'investimento inicial'!A:A,0))</f>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="35"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B169,'investimento inicial'!A:A,0))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="43" t="s">
+    <row r="170" spans="2:7">
+      <c r="B170" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B119,'investimento inicial'!A:A,0))</f>
+      <c r="C170" s="35"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B170,'investimento inicial'!A:A,0))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="44" t="s">
+    <row r="171" spans="2:7">
+      <c r="B171" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B120,'investimento inicial'!A:A,0))</f>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B171,'investimento inicial'!A:A,0))</f>
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="44" t="s">
+    <row r="172" spans="2:7">
+      <c r="B172" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B121,'investimento inicial'!A:A,0))</f>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B172,'investimento inicial'!A:A,0))</f>
         <v>418</v>
       </c>
     </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="44" t="s">
+    <row r="173" spans="2:7">
+      <c r="B173" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B122,'investimento inicial'!A:A,0))</f>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B173,'investimento inicial'!A:A,0))</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="44" t="s">
+    <row r="174" spans="2:7">
+      <c r="B174" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B123,'investimento inicial'!A:A,0))</f>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B174,'investimento inicial'!A:A,0))</f>
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="44" t="s">
+    <row r="175" spans="2:7">
+      <c r="B175" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B124,'investimento inicial'!A:A,0))</f>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B175,'investimento inicial'!A:A,0))</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="44" t="s">
+    <row r="176" spans="2:7">
+      <c r="B176" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B125,'investimento inicial'!A:A,0))</f>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B176,'investimento inicial'!A:A,0))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="44" t="s">
+    <row r="177" spans="2:7">
+      <c r="B177" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="44">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B126,'investimento inicial'!A:A,0))</f>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B177,'investimento inicial'!A:A,0))</f>
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="2:6">
-      <c r="E127" s="38" t="s">
+    <row r="178" spans="2:7">
+      <c r="F178" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="F127" s="40">
-        <f>SUM(F118:F126)</f>
+      <c r="G178" s="32">
+        <f>SUM(G169:G177)</f>
         <v>3587</v>
       </c>
     </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="39" t="s">
+    <row r="181" spans="2:7">
+      <c r="B181" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" s="41" t="s">
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="53"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="53"/>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="41" t="s">
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="F132" s="42" t="s">
+      <c r="G183" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="2:6">
-      <c r="B133" s="43" t="s">
+    <row r="184" spans="2:7">
+      <c r="B184" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="F133" s="44">
-        <f>$F$111*E133</f>
-        <v>1687.7985822000003</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6">
-      <c r="B134" s="43" t="s">
+      <c r="C184" s="35"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="35"/>
+      <c r="F184" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="G184" s="36">
+        <f>$G$162*F184</f>
+        <v>2494.9988185000002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="F134" s="44">
-        <f t="shared" ref="F134:F136" si="0">$F$111*E134</f>
-        <v>1687.7985822000003</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6">
-      <c r="B135" s="43" t="s">
+      <c r="C185" s="35"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="G185" s="36">
+        <f t="shared" ref="G185:G187" si="0">$G$162*F185</f>
+        <v>2494.9988185000002</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="52">
+      <c r="C186" s="35"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="44">
         <v>0.25</v>
       </c>
-      <c r="F135" s="44">
+      <c r="G186" s="36">
         <f t="shared" si="0"/>
-        <v>1406.4988185000002</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6">
-      <c r="B136" s="43" t="s">
+        <v>2494.9988185000002</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="F136" s="44">
+      <c r="C187" s="35"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="35"/>
+      <c r="F187" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="G187" s="36">
         <f t="shared" si="0"/>
-        <v>843.89929110000014</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6">
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="51"/>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139" s="39" t="s">
+        <v>2494.9988185000002</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="42"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="43"/>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
-      <c r="F139" s="39"/>
-    </row>
-    <row r="141" spans="2:6">
-      <c r="B141" s="41" t="s">
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="53"/>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C141" s="41"/>
-      <c r="D141" s="41" t="s">
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E141" s="41" t="s">
+      <c r="F192" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="F141" s="42" t="s">
+      <c r="G192" s="34" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="43" t="s">
+    <row r="193" spans="2:7">
+      <c r="B193" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43" t="s">
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="E142" s="44">
+      <c r="F193" s="36">
         <v>500</v>
       </c>
-      <c r="F142" s="44">
+      <c r="G193" s="36">
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="43" t="s">
+    <row r="194" spans="2:7">
+      <c r="B194" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C143" s="43"/>
-      <c r="D143" s="43" t="s">
+      <c r="C194" s="35"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="E143" s="44">
+      <c r="F194" s="36">
         <v>500</v>
       </c>
-      <c r="F143" s="44">
+      <c r="G194" s="36">
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="43" t="s">
+    <row r="195" spans="2:7">
+      <c r="B195" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C144" s="43"/>
-      <c r="D144" s="43" t="s">
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="E144" s="44">
+      <c r="F195" s="36">
         <v>500</v>
       </c>
-      <c r="F144" s="44">
+      <c r="G195" s="36">
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="2:6">
-      <c r="B147" s="39" t="s">
+    <row r="198" spans="2:7">
+      <c r="B198" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="41" t="s">
+      <c r="C198" s="53"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="53"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="53"/>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41" t="s">
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="F149" s="42" t="s">
+      <c r="G200" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="150" spans="2:6">
-      <c r="B150" s="43" t="s">
+    <row r="201" spans="2:7">
+      <c r="B201" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="44">
+      <c r="C201" s="35"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="35"/>
+      <c r="F201" s="36">
         <v>43044</v>
       </c>
-      <c r="F150" s="44">
-        <f>E150/12</f>
+      <c r="G201" s="36">
+        <f>F201/12</f>
         <v>3587</v>
       </c>
     </row>
-    <row r="151" spans="2:6">
-      <c r="B151" s="43" t="s">
+    <row r="202" spans="2:7">
+      <c r="B202" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C151" s="43"/>
-      <c r="D151" s="43"/>
-      <c r="E151" s="44">
+      <c r="C202" s="35"/>
+      <c r="D202" s="35"/>
+      <c r="E202" s="35"/>
+      <c r="F202" s="36">
         <v>50000</v>
       </c>
-      <c r="F151" s="44">
-        <f>E151/12</f>
+      <c r="G202" s="36">
+        <f>F202/12</f>
         <v>4166.666666666667</v>
       </c>
     </row>
-    <row r="152" spans="2:6">
-      <c r="B152" s="50"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="51" t="s">
+    <row r="203" spans="2:7">
+      <c r="B203" s="42"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="42"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="F152" s="51">
-        <f>F151-F150</f>
+      <c r="G203" s="43">
+        <f>G202-G201</f>
         <v>579.66666666666697</v>
       </c>
     </row>
-    <row r="153" spans="2:6">
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
-      <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
-    </row>
-    <row r="154" spans="2:6">
-      <c r="B154" s="38" t="s">
+    <row r="204" spans="2:7">
+      <c r="B204" s="42"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="42"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="155" spans="2:6">
-      <c r="B155" s="38" t="s">
+    <row r="206" spans="2:7">
+      <c r="B206" s="30" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B56:F56"/>
+  <autoFilter ref="B8:G37"/>
+  <mergeCells count="12">
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B166:G166"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"Brush Script MT,Regular"VELAS CANDIEIRO
 </oddHeader>

--- a/Mapeamento.xlsx
+++ b/Mapeamento.xlsx
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'investimento inicial'!$A$1:$E$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Viabilidade!$B$8:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Viabilidade!$B$8:$G$36</definedName>
     <definedName name="kgparafina">'Capacidade produtiva'!$J$6</definedName>
     <definedName name="lucro">'Custo de Produção'!$J$12</definedName>
     <definedName name="qtd7dias">'Capacidade produtiva'!$F$3</definedName>
@@ -74,7 +74,7 @@
     <author>Walisson Sobral</author>
   </authors>
   <commentList>
-    <comment ref="B145" authorId="0">
+    <comment ref="B153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="295">
   <si>
     <t>Despesas com Parafina</t>
   </si>
@@ -550,9 +550,6 @@
     <t>CLCB</t>
   </si>
   <si>
-    <t>Acessórios</t>
-  </si>
-  <si>
     <t>2° análise</t>
   </si>
   <si>
@@ -968,6 +965,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>Boleto</t>
+  </si>
+  <si>
+    <t>BNDES</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>qualquer</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Boleto/cartão crédito</t>
+  </si>
+  <si>
+    <t>Acessórios de escritório</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1106,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,13 +1220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1214,10 +1232,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1225,9 +1258,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2175,22 +2205,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" t="s">
         <v>196</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>197</v>
       </c>
       <c r="J1" s="7">
         <f>(30000/6.5)</f>
@@ -2199,39 +2229,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="I2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="52" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="16">
         <v>240</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="52">
         <v>260</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="58">
         <f>($J$3/C4)*C3</f>
         <v>5039.3999999999996</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="58">
         <f>E3*22</f>
         <v>110866.79999999999</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="59">
         <f>(F3*D3)/1000</f>
         <v>28825.367999999995</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J3" s="5">
         <f>(J2*60)-5%</f>
@@ -2239,21 +2269,21 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="46"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:10">
       <c r="I5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5" s="14">
         <f>(G3+G6+B14)*6</f>
@@ -2261,32 +2291,32 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="52" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="16">
         <v>396</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="52">
         <v>30</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="58">
         <f>($J$3/C7)*C6</f>
         <v>11086.68</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="58">
         <f>E6*22</f>
         <v>243906.96000000002</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="59">
         <f>((F6*D6)/1000)</f>
         <v>7317.2088000000003</v>
       </c>
       <c r="I6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J6" s="7">
         <f>(G3+G6+B14)</f>
@@ -2294,21 +2324,21 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="46"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="16">
         <v>15</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:10">
       <c r="I8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J8" s="14">
         <f>6*G3</f>
@@ -2325,7 +2355,7 @@
       </c>
       <c r="G9" s="20"/>
       <c r="I9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J9" s="14">
         <f>6.5*qtdpalitokg</f>
@@ -2334,25 +2364,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="52">
         <f>qtd7dias*3</f>
         <v>332600.39999999997</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2363,18 +2393,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2406,10 +2436,10 @@
   <sheetData>
     <row r="3" spans="1:13">
       <c r="A3" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K3" s="22">
         <f>F22/K5</f>
@@ -2418,28 +2448,28 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="K5" s="16">
         <f>kgparafina</f>
@@ -2454,7 +2484,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="16">
         <v>100</v>
@@ -2468,15 +2498,15 @@
         <v>16142.206079999998</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J7" s="16">
         <v>2.9</v>
@@ -2490,7 +2520,7 @@
         <v>321513.71999999997</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2501,7 +2531,7 @@
         <v>6500</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="16">
         <v>1000</v>
@@ -2515,7 +2545,7 @@
         <v>299783.8272</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J8" s="16">
         <v>10.9</v>
@@ -2529,23 +2559,23 @@
         <v>79757.575920000003</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="25">
         <v>150</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J10" s="21">
         <f>(J7*qtd7dias)+(J8*qtdpalitokg)</f>
@@ -2554,7 +2584,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="25">
         <v>150</v>
@@ -2562,13 +2592,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" s="25">
         <v>418</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J12" s="22">
         <f>J10-F22</f>
@@ -2577,7 +2607,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="25">
         <v>350</v>
@@ -2585,13 +2615,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="25">
         <v>200</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J14" s="22">
         <f>F22-F8</f>
@@ -2600,23 +2630,23 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="25">
         <v>500</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="25">
         <v>70</v>
@@ -2624,7 +2654,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="25">
         <v>150</v>
@@ -2632,7 +2662,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="25">
         <v>80</v>
@@ -2640,7 +2670,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2671,10 +2701,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>211</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>81</v>
@@ -2682,7 +2712,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="23">
         <v>0.3</v>
@@ -2694,7 +2724,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="23">
         <v>0.3</v>
@@ -2706,7 +2736,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="23">
         <v>0.25</v>
@@ -2718,7 +2748,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="23">
         <v>0.15</v>
@@ -2730,12 +2760,12 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="7">
         <f>(180000/lucro)</f>
@@ -2744,7 +2774,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="15">
         <f>('Custo de Produção'!J10-'Custo de Produção'!F22)/'Custo de Produção'!F22</f>
@@ -2755,15 +2785,15 @@
         <v>0.26188309818591066</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="15">
         <f>'Custo de Produção'!L7-('Custo de Produção'!F22-'Capacidade produtiva'!J9)</f>
@@ -2772,7 +2802,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="15">
         <f>'Custo de Produção'!L8-('Custo de Produção'!F22-'Capacidade produtiva'!J8)</f>
@@ -2896,60 +2926,60 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -2959,7 +2989,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3011,11 +3041,11 @@
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="J2" s="1" t="s">
@@ -3038,9 +3068,9 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="1">
         <v>1482</v>
       </c>
@@ -3069,16 +3099,16 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6">
         <f>E3*21</f>
         <v>31122</v>
@@ -3111,18 +3141,18 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="1">
         <v>260</v>
       </c>
@@ -3131,13 +3161,13 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -3156,26 +3186,26 @@
         <f>(F10*G3)/1000</f>
         <v>0</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14">
         <v>0.16</v>
       </c>
@@ -3202,9 +3232,9 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="J15" s="12">
         <f>(E6*1000)/$H$34</f>
         <v>3846.1538461538462</v>
@@ -3253,7 +3283,7 @@
         <v>487</v>
       </c>
       <c r="O17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3268,11 +3298,11 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="K19" t="s">
         <v>126</v>
       </c>
@@ -3290,44 +3320,44 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26">
         <f>(1*$E$3)</f>
         <v>1482</v>
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" t="s">
         <v>88</v>
       </c>
@@ -3336,9 +3366,9 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="7">
         <f>(E3*$P$8)*15%+E3</f>
         <v>38828.400000000001</v>
@@ -3349,35 +3379,35 @@
       </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49">
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="51">
         <f>(21*E12)</f>
         <v>8091.72</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="51">
         <f>(21*F12)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="51">
         <f>(21*G12)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="8"/>
@@ -3394,21 +3424,21 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51">
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50">
         <f>E17*21</f>
         <v>4.9795199999999999</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3"/>
@@ -3416,24 +3446,32 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="49">
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="51">
         <f>E26*21</f>
         <v>31122</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="B36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="B39:D40"/>
@@ -3445,14 +3483,6 @@
     <mergeCell ref="B19:D20"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B25:D26"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3479,21 +3509,21 @@
   <sheetData>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>3500</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="K3" s="47" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="K3" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
       <c r="N3" t="s">
         <v>137</v>
       </c>
@@ -3660,7 +3690,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16">
         <v>1000</v>
@@ -3687,7 +3717,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="12">
         <f>C18*12</f>
@@ -3718,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3731,19 +3761,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3751,7 +3781,7 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -3768,7 +3798,7 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -3785,7 +3815,7 @@
         <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3794,7 +3824,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="39">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3802,7 +3832,7 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -3816,10 +3846,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -3836,7 +3866,7 @@
         <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -3853,10 +3883,10 @@
         <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3871,10 +3901,10 @@
         <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9">
         <f>E9/350</f>
@@ -3885,7 +3915,7 @@
         <v>1750</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3893,7 +3923,7 @@
         <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -3907,10 +3937,10 @@
         <v>686.82972600000005</v>
       </c>
       <c r="G10" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="29" t="s">
         <v>243</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3918,10 +3948,10 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="7">
         <f>((D8*41%)*1000)/0.26</f>
@@ -3937,7 +3967,7 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -3945,10 +3975,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>
@@ -3961,21 +3991,21 @@
         <v>807.7</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3983,7 +4013,7 @@
         <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -3997,7 +4027,7 @@
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -4011,10 +4041,10 @@
         <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4028,10 +4058,10 @@
         <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4042,13 +4072,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4059,13 +4089,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4076,13 +4106,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4096,10 +4126,10 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4113,10 +4143,10 @@
         <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4130,10 +4160,10 @@
         <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4147,10 +4177,10 @@
         <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4164,10 +4194,10 @@
         <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4178,7 +4208,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
@@ -4189,10 +4219,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -4209,7 +4239,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
@@ -4223,10 +4253,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -4240,10 +4270,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
@@ -4257,10 +4287,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
@@ -4278,7 +4308,7 @@
       </c>
       <c r="E34" s="39">
         <f>SUM(E2:E31)</f>
-        <v>130893.38164907692</v>
+        <v>130938.38164907692</v>
       </c>
     </row>
   </sheetData>
@@ -4289,10 +4319,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H206"/>
+  <dimension ref="A2:H214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4309,50 +4339,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>81</v>
@@ -4367,7 +4397,7 @@
         <v>mensal</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0)))</f>
@@ -4391,7 +4421,7 @@
         <v>mensal</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0)))</f>
@@ -4415,7 +4445,7 @@
         <v>mensal</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0)))</f>
@@ -4427,7 +4457,7 @@
       </c>
       <c r="G11" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4439,7 +4469,7 @@
         <v>implantação</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0)))</f>
@@ -4463,7 +4493,7 @@
         <v>implantação</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E13" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B13,'investimento inicial'!$A:$A,0)))</f>
@@ -4486,7 +4516,7 @@
         <v>mensal</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0)))</f>
@@ -4510,7 +4540,7 @@
         <v>mensal</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0)))</f>
@@ -4534,7 +4564,7 @@
         <v>mensal</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E16" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0)))</f>
@@ -4558,7 +4588,7 @@
         <v>mensal</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0)))</f>
@@ -4582,7 +4612,7 @@
         <v>mensal</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0)))</f>
@@ -4606,7 +4636,7 @@
         <v>mensal</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B19,'investimento inicial'!$A:$A,0)))</f>
@@ -4623,14 +4653,14 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0)))</f>
@@ -4647,14 +4677,14 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E21" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B21,'investimento inicial'!$A:$A,0)))</f>
@@ -4678,7 +4708,7 @@
         <v>mensal</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E22" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B22,'investimento inicial'!$A:$A,0)))</f>
@@ -4702,7 +4732,7 @@
         <v>único</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E23" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B23,'investimento inicial'!$A:$A,0)))</f>
@@ -4726,7 +4756,7 @@
         <v>único</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0)))</f>
@@ -4750,7 +4780,7 @@
         <v>único</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0)))</f>
@@ -4775,7 +4805,7 @@
         <v>único</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E26" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0)))</f>
@@ -4791,17 +4821,16 @@
       </c>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1">
-      <c r="A27" s="31"/>
+    <row r="27" spans="1:8">
       <c r="B27" s="35" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C27" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E27" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0)))</f>
@@ -4813,13 +4842,12 @@
       </c>
       <c r="G27" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
-      </c>
-      <c r="H27" s="31"/>
+        <v>2500</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="35" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="C28" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
@@ -4838,19 +4866,19 @@
       </c>
       <c r="G28" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
-        <v>2500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0)))</f>
@@ -4858,23 +4886,23 @@
       </c>
       <c r="F29" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B29,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E30" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0)))</f>
@@ -4882,23 +4910,23 @@
       </c>
       <c r="F30" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B30,'investimento inicial'!$A:$A,0))</f>
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
         <v>único</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0)))</f>
@@ -4910,67 +4938,67 @@
       </c>
       <c r="G31" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B31,'investimento inicial'!$A:$A,0))</f>
-        <v>350</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="35" t="str">
+        <v>294</v>
+      </c>
+      <c r="C32" s="35">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
-        <v>único</v>
+        <v>0</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E32" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0)))</f>
-        <v>un</v>
+        <v>-</v>
       </c>
       <c r="F32" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="35">
+        <v>154</v>
+      </c>
+      <c r="C33" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
+        <v>único</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E33" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0)))</f>
         <v>-</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="41" t="str">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="G33" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="35" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="C34" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
-        <v>único</v>
+        <v>mensal</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0)))</f>
@@ -4982,19 +5010,19 @@
       </c>
       <c r="G34" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B34,'investimento inicial'!$A:$A,0))</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="35" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="C35" s="35" t="str">
         <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
         <v>mensal</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E35" s="35" t="str">
         <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0)))</f>
@@ -5006,41 +5034,27 @@
       </c>
       <c r="G35" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B35,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="35" t="str">
-        <f>INDEX('investimento inicial'!$B:$B,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))</f>
-        <v>mensal</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="35" t="str">
-        <f>IF(INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))=0,"",INDEX('investimento inicial'!$C:$C,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="F36" s="41" t="str">
-        <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))</f>
-        <v>-</v>
-      </c>
-      <c r="G36" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B36,'investimento inicial'!$A:$A,0))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="F37" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="32">
-        <f>SUM(G9:G36)</f>
-        <v>120543.38164907692</v>
-      </c>
+      <c r="F36" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="32">
+        <f>SUM(G9:G35)</f>
+        <v>110588.38164907692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="28" customFormat="1">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" s="28" customFormat="1">
       <c r="A40" s="31"/>
@@ -5102,35 +5116,35 @@
       <c r="G45" s="32"/>
       <c r="H45" s="31"/>
     </row>
-    <row r="46" spans="1:8" s="28" customFormat="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
+    <row r="46" spans="1:8" s="46" customFormat="1">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="32"/>
-      <c r="H46" s="31"/>
-    </row>
-    <row r="47" spans="1:8" s="28" customFormat="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
+      <c r="H46" s="47"/>
+    </row>
+    <row r="47" spans="1:8" s="46" customFormat="1">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="32"/>
-      <c r="H47" s="31"/>
-    </row>
-    <row r="48" spans="1:8" s="28" customFormat="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
+      <c r="H47" s="47"/>
+    </row>
+    <row r="48" spans="1:8" s="46" customFormat="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="32"/>
-      <c r="H48" s="31"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" s="28" customFormat="1">
       <c r="A49" s="31"/>
@@ -5184,14 +5198,12 @@
     </row>
     <row r="54" spans="1:8" s="28" customFormat="1">
       <c r="A54" s="31"/>
-      <c r="B54" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" s="28" customFormat="1">
@@ -5206,110 +5218,102 @@
     </row>
     <row r="56" spans="1:8" s="28" customFormat="1">
       <c r="A56" s="31"/>
-      <c r="B56" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="B56" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8" s="28" customFormat="1">
       <c r="A57" s="31"/>
-      <c r="B57" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B57,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
-      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="31"/>
     </row>
     <row r="58" spans="1:8" s="28" customFormat="1">
       <c r="A58" s="31"/>
-      <c r="B58" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B58,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
+      <c r="B58" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="H58" s="31"/>
     </row>
     <row r="59" spans="1:8" s="28" customFormat="1">
       <c r="A59" s="31"/>
       <c r="B59" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="36">
-        <v>90</v>
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B59,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
       </c>
       <c r="H59" s="31"/>
     </row>
     <row r="60" spans="1:8" s="28" customFormat="1">
       <c r="A60" s="31"/>
       <c r="B60" s="35" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="36">
-        <v>418</v>
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B60,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
       </c>
       <c r="H60" s="31"/>
     </row>
     <row r="61" spans="1:8" s="28" customFormat="1">
       <c r="A61" s="31"/>
       <c r="B61" s="35" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B61,'investimento inicial'!$A:$A,0))</f>
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8" s="28" customFormat="1">
       <c r="A62" s="31"/>
       <c r="B62" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
       <c r="G62" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B62,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
+        <v>418</v>
       </c>
       <c r="H62" s="31"/>
     </row>
     <row r="63" spans="1:8" s="28" customFormat="1">
       <c r="A63" s="31"/>
       <c r="B63" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
@@ -5317,14 +5321,14 @@
       <c r="F63" s="35"/>
       <c r="G63" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B63,'investimento inicial'!$A:$A,0))</f>
-        <v>1750</v>
+        <v>30000</v>
       </c>
       <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:8" s="28" customFormat="1">
       <c r="A64" s="31"/>
       <c r="B64" s="35" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
@@ -5332,13 +5336,14 @@
       <c r="F64" s="35"/>
       <c r="G64" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B64,'investimento inicial'!$A:$A,0))</f>
-        <v>686.82972600000005</v>
+        <v>30000</v>
       </c>
       <c r="H64" s="31"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" s="28" customFormat="1">
+      <c r="A65" s="31"/>
       <c r="B65" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
@@ -5346,12 +5351,14 @@
       <c r="F65" s="35"/>
       <c r="G65" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B65,'investimento inicial'!$A:$A,0))</f>
-        <v>340.85192307692307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>1750</v>
+      </c>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="1:8" s="28" customFormat="1">
+      <c r="A66" s="31"/>
       <c r="B66" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
@@ -5359,12 +5366,13 @@
       <c r="F66" s="35"/>
       <c r="G66" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B66,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
-      </c>
+        <v>686.82972600000005</v>
+      </c>
+      <c r="H66" s="31"/>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" s="35" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
@@ -5372,12 +5380,12 @@
       <c r="F67" s="35"/>
       <c r="G67" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B67,'investimento inicial'!$A:$A,0))</f>
-        <v>807.7</v>
+        <v>340.85192307692307</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" s="35" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
@@ -5390,7 +5398,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" s="35" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
@@ -5398,13 +5406,12 @@
       <c r="F69" s="35"/>
       <c r="G69" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B69,'investimento inicial'!$A:$A,0))</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="28" customFormat="1">
-      <c r="A70" s="31"/>
+        <v>807.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="B70" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
@@ -5412,14 +5419,12 @@
       <c r="F70" s="35"/>
       <c r="G70" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B70,'investimento inicial'!$A:$A,0))</f>
-        <v>2500</v>
-      </c>
-      <c r="H70" s="31"/>
-    </row>
-    <row r="71" spans="1:8" s="28" customFormat="1">
-      <c r="A71" s="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="B71" s="35" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
@@ -5427,14 +5432,13 @@
       <c r="F71" s="35"/>
       <c r="G71" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B71,'investimento inicial'!$A:$A,0))</f>
-        <v>350</v>
-      </c>
-      <c r="H71" s="31"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="72" spans="1:8" s="28" customFormat="1">
       <c r="A72" s="31"/>
       <c r="B72" s="35" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
@@ -5442,14 +5446,14 @@
       <c r="F72" s="35"/>
       <c r="G72" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B72,'investimento inicial'!$A:$A,0))</f>
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="H72" s="31"/>
     </row>
     <row r="73" spans="1:8" s="28" customFormat="1">
       <c r="A73" s="31"/>
       <c r="B73" s="35" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
@@ -5457,14 +5461,14 @@
       <c r="F73" s="35"/>
       <c r="G73" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B73,'investimento inicial'!$A:$A,0))</f>
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:8" s="28" customFormat="1">
       <c r="A74" s="31"/>
       <c r="B74" s="35" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
@@ -5472,14 +5476,14 @@
       <c r="F74" s="35"/>
       <c r="G74" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B74,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
+        <v>221</v>
       </c>
       <c r="H74" s="31"/>
     </row>
     <row r="75" spans="1:8" s="28" customFormat="1">
       <c r="A75" s="31"/>
       <c r="B75" s="35" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
@@ -5487,128 +5491,140 @@
       <c r="F75" s="35"/>
       <c r="G75" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B75,'investimento inicial'!$A:$A,0))</f>
+        <v>800</v>
+      </c>
+      <c r="H75" s="31"/>
+    </row>
+    <row r="76" spans="1:8" s="28" customFormat="1">
+      <c r="A76" s="31"/>
+      <c r="B76" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B76,'investimento inicial'!$A:$A,0))</f>
+        <v>2000</v>
+      </c>
+      <c r="H76" s="31"/>
+    </row>
+    <row r="77" spans="1:8" s="28" customFormat="1">
+      <c r="A77" s="31"/>
+      <c r="B77" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B77,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
+      </c>
+      <c r="H77" s="31"/>
+    </row>
+    <row r="78" spans="1:8" s="28" customFormat="1">
+      <c r="A78" s="31"/>
+      <c r="B78" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B78,'investimento inicial'!$A:$A,0))</f>
         <v>60</v>
       </c>
-      <c r="H75" s="31"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="G76" s="43">
-        <f>SUM(G57:G75)</f>
-        <v>42667.381649076924</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="28" customFormat="1">
-      <c r="A79" s="31"/>
-      <c r="B79" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="31"/>
-    </row>
-    <row r="80" spans="1:8" s="28" customFormat="1">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="31"/>
-    </row>
-    <row r="81" spans="1:8" s="28" customFormat="1">
-      <c r="A81" s="31"/>
-      <c r="B81" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H81" s="31"/>
+      <c r="H78" s="31"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79" s="43">
+        <f>SUM(G59:G78)</f>
+        <v>71888.381649076924</v>
+      </c>
     </row>
     <row r="82" spans="1:8" s="28" customFormat="1">
       <c r="A82" s="31"/>
-      <c r="B82" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B82,'investimento inicial'!$A:$A,0))</f>
-        <v>5200</v>
-      </c>
+      <c r="B82" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="31"/>
     </row>
     <row r="83" spans="1:8" s="28" customFormat="1">
       <c r="A83" s="31"/>
-      <c r="B83" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B83,'investimento inicial'!$A:$A,0))</f>
-        <v>221</v>
-      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="32"/>
       <c r="H83" s="31"/>
     </row>
     <row r="84" spans="1:8" s="28" customFormat="1">
       <c r="A84" s="31"/>
-      <c r="B84" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B84,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+      <c r="B84" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="H84" s="31"/>
     </row>
     <row r="85" spans="1:8" s="28" customFormat="1">
       <c r="A85" s="31"/>
       <c r="B85" s="35" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
+      <c r="E85" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>291</v>
+      </c>
       <c r="G85" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B85,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+        <v>5200</v>
       </c>
       <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" s="28" customFormat="1">
       <c r="A86" s="31"/>
       <c r="B86" s="35" t="s">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
+      <c r="E86" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>292</v>
+      </c>
       <c r="G86" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B86,'investimento inicial'!$A:$A,0))</f>
         <v>10000</v>
@@ -5618,12 +5634,16 @@
     <row r="87" spans="1:8" s="28" customFormat="1">
       <c r="A87" s="31"/>
       <c r="B87" s="35" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
+      <c r="E87" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>292</v>
+      </c>
       <c r="G87" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B87,'investimento inicial'!$A:$A,0))</f>
         <v>10000</v>
@@ -5633,26 +5653,32 @@
     <row r="88" spans="1:8" s="28" customFormat="1">
       <c r="A88" s="31"/>
       <c r="B88" s="35" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
+      <c r="E88" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F88" s="35" t="s">
+        <v>292</v>
+      </c>
       <c r="G88" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B88,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="H88" s="31"/>
     </row>
     <row r="89" spans="1:8" s="28" customFormat="1">
       <c r="A89" s="31"/>
       <c r="B89" s="35" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
+      <c r="E89" s="35" t="s">
+        <v>293</v>
+      </c>
       <c r="F89" s="35"/>
       <c r="G89" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B89,'investimento inicial'!$A:$A,0))</f>
@@ -5662,14 +5688,16 @@
     </row>
     <row r="90" spans="1:8" s="28" customFormat="1">
       <c r="A90" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B90" s="35" t="s">
         <v>144</v>
       </c>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
+      <c r="E90" s="35" t="s">
+        <v>293</v>
+      </c>
       <c r="F90" s="35"/>
       <c r="G90" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B90,'investimento inicial'!$A:$A,0))</f>
@@ -5683,11 +5711,11 @@
       <c r="D91" s="42"/>
       <c r="E91" s="42"/>
       <c r="F91" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G91" s="43">
-        <f>SUM(G82:G90)</f>
-        <v>77921</v>
+        <f>SUM(G85:G90)</f>
+        <v>37700</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="28" customFormat="1">
@@ -5800,177 +5828,153 @@
       <c r="G102" s="43"/>
       <c r="H102" s="31"/>
     </row>
-    <row r="103" spans="1:8" s="28" customFormat="1">
-      <c r="A103" s="31"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
+    <row r="103" spans="1:8" s="46" customFormat="1">
+      <c r="A103" s="47"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
       <c r="G103" s="43"/>
-      <c r="H103" s="31"/>
-    </row>
-    <row r="104" spans="1:8" s="28" customFormat="1">
-      <c r="A104" s="31"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
+      <c r="H103" s="47"/>
+    </row>
+    <row r="104" spans="1:8" s="46" customFormat="1">
+      <c r="A104" s="47"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
       <c r="G104" s="43"/>
-      <c r="H104" s="31"/>
-    </row>
-    <row r="105" spans="1:8" s="28" customFormat="1">
-      <c r="A105" s="31"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
+      <c r="H104" s="47"/>
+    </row>
+    <row r="105" spans="1:8" s="46" customFormat="1">
+      <c r="A105" s="47"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
       <c r="G105" s="43"/>
-      <c r="H105" s="31"/>
-    </row>
-    <row r="106" spans="1:8" s="28" customFormat="1">
-      <c r="A106" s="31"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
+      <c r="H105" s="47"/>
+    </row>
+    <row r="106" spans="1:8" s="46" customFormat="1">
+      <c r="A106" s="47"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
       <c r="G106" s="43"/>
-      <c r="H106" s="31"/>
-    </row>
-    <row r="107" spans="1:8" s="28" customFormat="1">
-      <c r="A107" s="31"/>
-      <c r="B107" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="31"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="34" t="s">
+      <c r="H106" s="47"/>
+    </row>
+    <row r="107" spans="1:8" s="46" customFormat="1">
+      <c r="A107" s="47"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="47"/>
+    </row>
+    <row r="108" spans="1:8" s="46" customFormat="1">
+      <c r="A108" s="47"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="47"/>
+    </row>
+    <row r="109" spans="1:8" s="46" customFormat="1">
+      <c r="A109" s="47"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="47"/>
+    </row>
+    <row r="110" spans="1:8" s="46" customFormat="1">
+      <c r="A110" s="47"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="47"/>
+    </row>
+    <row r="111" spans="1:8" s="28" customFormat="1">
+      <c r="A111" s="31"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="31"/>
+    </row>
+    <row r="112" spans="1:8" s="28" customFormat="1">
+      <c r="A112" s="31"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="31"/>
+    </row>
+    <row r="113" spans="1:8" s="28" customFormat="1">
+      <c r="A113" s="31"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="31"/>
+    </row>
+    <row r="114" spans="1:8" s="28" customFormat="1">
+      <c r="A114" s="31"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="31"/>
+    </row>
+    <row r="115" spans="1:8" s="28" customFormat="1">
+      <c r="A115" s="31"/>
+      <c r="B115" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="57"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="31"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="B110" s="35" t="s">
+    <row r="118" spans="1:8">
+      <c r="B118" s="35" t="s">
         <v>96</v>
-      </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B110,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B111,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="B112" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B112,'investimento inicial'!$A:$A,0))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B113,'investimento inicial'!$A:$A,0))</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B114,'investimento inicial'!$A:$A,0))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B115,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B116,'investimento inicial'!$A:$A,0))</f>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B117,'investimento inicial'!$A:$A,0))</f>
-        <v>686.82972600000005</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="35" t="s">
-        <v>116</v>
       </c>
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
@@ -5978,12 +5982,12 @@
       <c r="F118" s="35"/>
       <c r="G118" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B118,'investimento inicial'!$A:$A,0))</f>
-        <v>340.85192307692307</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="B119" s="35" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
@@ -5991,12 +5995,12 @@
       <c r="F119" s="35"/>
       <c r="G119" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B119,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="B120" s="35" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
@@ -6004,12 +6008,12 @@
       <c r="F120" s="35"/>
       <c r="G120" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B120,'investimento inicial'!$A:$A,0))</f>
-        <v>807.7</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="B121" s="35" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C121" s="35"/>
       <c r="D121" s="35"/>
@@ -6017,12 +6021,12 @@
       <c r="F121" s="35"/>
       <c r="G121" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B121,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="B122" s="35" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
@@ -6030,12 +6034,12 @@
       <c r="F122" s="35"/>
       <c r="G122" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B122,'investimento inicial'!$A:$A,0))</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="B123" s="35" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
@@ -6043,12 +6047,12 @@
       <c r="F123" s="35"/>
       <c r="G123" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B123,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="B124" s="35" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
@@ -6056,189 +6060,189 @@
       <c r="F124" s="35"/>
       <c r="G124" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B124,'investimento inicial'!$A:$A,0))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7">
-      <c r="B125" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
       <c r="G125" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B125,'investimento inicial'!$A:$A,0))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126" s="42"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="G126" s="43">
-        <f>SUM(G110:G125)</f>
-        <v>37172.381649076924</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7">
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="42"/>
-      <c r="G127" s="43"/>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="B128" s="42"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="43"/>
+        <v>686.82972600000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B126,'investimento inicial'!$A:$A,0))</f>
+        <v>340.85192307692307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B127,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B128,'investimento inicial'!$A:$A,0))</f>
+        <v>807.7</v>
+      </c>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
+      <c r="B129" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B129,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130" s="30">
-        <f>'investimento inicial'!D8</f>
-        <v>5</v>
+      <c r="B130" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B130,'investimento inicial'!$A:$A,0))</f>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="34" t="s">
-        <v>81</v>
+      <c r="B131" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B131,'investimento inicial'!$A:$A,0))</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="35" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="35"/>
       <c r="F132" s="35"/>
       <c r="G132" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B132,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B132,'investimento inicial'!$A:$A,0))</f>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
+      <c r="B133" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
       <c r="G133" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B133,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B133,'investimento inicial'!$A:$A,0))</f>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B134,'investimento inicial'!A:A,0))</f>
-        <v>30000</v>
+      <c r="B134" s="42"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" s="43">
+        <f>SUM(G118:G133)</f>
+        <v>37217.381649076924</v>
       </c>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B135,'investimento inicial'!A:A,0))</f>
-        <v>1750</v>
-      </c>
+      <c r="B135" s="42"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="43"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B136,'investimento inicial'!A:A,0))</f>
-        <v>686.82972600000005</v>
-      </c>
+      <c r="B136" s="42"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="43"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B137,'investimento inicial'!A:A,0))</f>
-        <v>340.85192307692307</v>
-      </c>
+      <c r="B137" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C137" s="56"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="56"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B138,'investimento inicial'!A:A,0))</f>
-        <v>0</v>
+      <c r="B138" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" s="30">
+        <f>'investimento inicial'!D8</f>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B139,'investimento inicial'!A:A,0))</f>
-        <v>807.7</v>
+      <c r="B139" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="35" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
@@ -6246,12 +6250,12 @@
       <c r="F140" s="35"/>
       <c r="G140" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B140,'investimento inicial'!A:A,0))</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="35" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C141" s="35"/>
       <c r="D141" s="35"/>
@@ -6259,584 +6263,688 @@
       <c r="F141" s="35"/>
       <c r="G141" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B141,'investimento inicial'!A:A,0))</f>
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="2:7">
-      <c r="F142" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="G142" s="32">
-        <f>SUM(G134:G141)</f>
-        <v>34585.381649076917</v>
+      <c r="B142" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B142,'investimento inicial'!A:A,0))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B143,'investimento inicial'!A:A,0))</f>
+        <v>1750</v>
       </c>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="C144" s="53"/>
-      <c r="D144" s="53"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="53"/>
+      <c r="B144" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B144,'investimento inicial'!A:A,0))</f>
+        <v>686.82972600000005</v>
+      </c>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="19"/>
-      <c r="C145" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E145" s="30">
-        <v>2.9</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G145" s="32">
-        <v>10.9</v>
+      <c r="B145" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B145,'investimento inicial'!A:A,0))</f>
+        <v>340.85192307692307</v>
       </c>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="G146" s="34" t="s">
-        <v>81</v>
+      <c r="B146" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B146,'investimento inicial'!A:A,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="35" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
-      <c r="E147" s="41">
-        <f>((E130*42%)/0.26)*1000</f>
-        <v>8076.9230769230762</v>
-      </c>
-      <c r="F147" s="35" t="s">
-        <v>232</v>
-      </c>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
       <c r="G147" s="36">
-        <f>E147*$E$145</f>
-        <v>23423.076923076922</v>
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B147,'investimento inicial'!A:A,0))</f>
+        <v>807.7</v>
       </c>
     </row>
     <row r="148" spans="2:7">
       <c r="B148" s="35" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C148" s="35"/>
       <c r="D148" s="35"/>
-      <c r="E148" s="41">
-        <f>(((E130*43.54%)/0.03)*1000)*0.03</f>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B148,'investimento inicial'!A:A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B149,'investimento inicial'!A:A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="F150" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G150" s="32">
+        <f>SUM(G142:G149)</f>
+        <v>34585.381649076917</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="19"/>
+      <c r="C153" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E153" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G153" s="32">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G154" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="41">
+        <f>((E138*42%)/0.26)*1000</f>
+        <v>8076.9230769230762</v>
+      </c>
+      <c r="F155" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="G155" s="36">
+        <f>E155*$E$153</f>
+        <v>23423.076923076922</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="41">
+        <f>(((E138*43.54%)/0.03)*1000)*0.03</f>
         <v>2177</v>
       </c>
-      <c r="F148" s="35" t="s">
+      <c r="F156" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G148" s="36">
-        <f>G145*E148</f>
+      <c r="G156" s="36">
+        <f>G153*E156</f>
         <v>23729.3</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
-      <c r="F149" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="G149" s="32">
-        <f>SUM(G147:G148)</f>
+    <row r="157" spans="2:7">
+      <c r="F157" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G157" s="32">
+        <f>SUM(G155:G156)</f>
         <v>47152.376923076925</v>
       </c>
     </row>
-    <row r="159" spans="2:7">
-      <c r="B159" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C159" s="53"/>
-      <c r="D159" s="53"/>
-      <c r="E159" s="53"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="53"/>
-    </row>
-    <row r="161" spans="2:7">
-      <c r="B161" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="34" t="s">
+    <row r="167" spans="2:7">
+      <c r="B167" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C167" s="56"/>
+      <c r="D167" s="56"/>
+      <c r="E167" s="56"/>
+      <c r="F167" s="56"/>
+      <c r="G167" s="56"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="34" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7">
-      <c r="B162" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="36">
-        <f>G149-G126</f>
-        <v>9979.9952740000008</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7">
-      <c r="B163" s="42"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="42"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
-      <c r="G163" s="43"/>
-    </row>
-    <row r="164" spans="2:7">
-      <c r="B164" s="42"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="42"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="42"/>
-      <c r="G164" s="43"/>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165" s="42"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="42"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="43"/>
-    </row>
-    <row r="166" spans="2:7">
-      <c r="B166" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="C166" s="53"/>
-      <c r="D166" s="53"/>
-      <c r="E166" s="53"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="53"/>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="E167" s="30">
-        <f>'investimento inicial'!D8</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7">
-      <c r="B168" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="35"/>
-      <c r="G169" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B169,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
       </c>
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="35" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35"/>
       <c r="F170" s="35"/>
       <c r="G170" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B170,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
+        <f>G157-G134</f>
+        <v>9934.9952740000008</v>
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B171,'investimento inicial'!A:A,0))</f>
-        <v>45</v>
-      </c>
+      <c r="B171" s="42"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="43"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="36" t="s">
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
+      <c r="G172" s="43"/>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="42"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="43"/>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" s="56"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="56"/>
+      <c r="G174" s="56"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="36"/>
-      <c r="G172" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B172,'investimento inicial'!A:A,0))</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
-      <c r="B173" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B173,'investimento inicial'!A:A,0))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7">
-      <c r="B174" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C174" s="36"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B174,'investimento inicial'!A:A,0))</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7">
-      <c r="B175" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B175,'investimento inicial'!A:A,0))</f>
-        <v>1500</v>
+      <c r="E175" s="30">
+        <f>'investimento inicial'!D8</f>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B176,'investimento inicial'!A:A,0))</f>
-        <v>60</v>
+      <c r="B176" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C177" s="36"/>
-      <c r="D177" s="36"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="36"/>
+      <c r="B177" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C177" s="35"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="35"/>
+      <c r="F177" s="35"/>
       <c r="G177" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B177,'investimento inicial'!A:A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178" s="35"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="35"/>
+      <c r="F178" s="35"/>
+      <c r="G178" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B178,'investimento inicial'!A:A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B179,'investimento inicial'!A:A,0))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B180,'investimento inicial'!A:A,0))</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B181,'investimento inicial'!A:A,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B182,'investimento inicial'!A:A,0))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B183,'investimento inicial'!A:A,0))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C184" s="36"/>
+      <c r="D184" s="36"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B184,'investimento inicial'!A:A,0))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36"/>
+      <c r="G185" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B185,'investimento inicial'!A:A,0))</f>
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="2:7">
-      <c r="F178" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="G178" s="32">
-        <f>SUM(G169:G177)</f>
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7">
-      <c r="B181" s="53" t="s">
+    <row r="186" spans="2:7">
+      <c r="F186" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G186" s="32">
+        <f>SUM(G177:G185)</f>
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
-    </row>
-    <row r="183" spans="2:7">
-      <c r="B183" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="G183" s="34" t="s">
+      <c r="C189" s="56"/>
+      <c r="D189" s="56"/>
+      <c r="E189" s="56"/>
+      <c r="F189" s="56"/>
+      <c r="G189" s="56"/>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G191" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="2:7">
-      <c r="B184" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="44">
+    <row r="192" spans="2:7">
+      <c r="B192" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="44">
         <v>0.25</v>
       </c>
-      <c r="G184" s="36">
-        <f>$G$162*F184</f>
-        <v>2494.9988185000002</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7">
-      <c r="B185" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="G185" s="36">
-        <f t="shared" ref="G185:G187" si="0">$G$162*F185</f>
-        <v>2494.9988185000002</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7">
-      <c r="B186" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="G186" s="36">
-        <f t="shared" si="0"/>
-        <v>2494.9988185000002</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7">
-      <c r="B187" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="G187" s="36">
-        <f t="shared" si="0"/>
-        <v>2494.9988185000002</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7">
-      <c r="B188" s="42"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="42"/>
-      <c r="E188" s="42"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="43"/>
-    </row>
-    <row r="190" spans="2:7">
-      <c r="B190" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C190" s="53"/>
-      <c r="D190" s="53"/>
-      <c r="E190" s="53"/>
-      <c r="F190" s="53"/>
-      <c r="G190" s="53"/>
-    </row>
-    <row r="192" spans="2:7">
-      <c r="B192" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="F192" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="G192" s="34" t="s">
-        <v>262</v>
+      <c r="G192" s="36">
+        <f>$G$170*F192</f>
+        <v>2483.7488185000002</v>
       </c>
     </row>
     <row r="193" spans="2:7">
       <c r="B193" s="35" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="C193" s="35"/>
       <c r="D193" s="35"/>
-      <c r="E193" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F193" s="36">
-        <v>500</v>
+      <c r="E193" s="35"/>
+      <c r="F193" s="44">
+        <v>0.25</v>
       </c>
       <c r="G193" s="36">
-        <v>500</v>
+        <f t="shared" ref="G193:G195" si="0">$G$170*F193</f>
+        <v>2483.7488185000002</v>
       </c>
     </row>
     <row r="194" spans="2:7">
       <c r="B194" s="35" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
-      <c r="E194" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F194" s="36">
-        <v>500</v>
+      <c r="E194" s="35"/>
+      <c r="F194" s="44">
+        <v>0.25</v>
       </c>
       <c r="G194" s="36">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>2483.7488185000002</v>
       </c>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
-      <c r="E195" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="F195" s="36">
-        <v>500</v>
+      <c r="E195" s="35"/>
+      <c r="F195" s="44">
+        <v>0.25</v>
       </c>
       <c r="G195" s="36">
-        <v>500</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>2483.7488185000002</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="42"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="42"/>
+      <c r="E196" s="42"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="43"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="C198" s="53"/>
-      <c r="D198" s="53"/>
-      <c r="E198" s="53"/>
-      <c r="F198" s="53"/>
-      <c r="G198" s="53"/>
+      <c r="B198" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" s="56"/>
+      <c r="D198" s="56"/>
+      <c r="E198" s="56"/>
+      <c r="F198" s="56"/>
+      <c r="G198" s="56"/>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C200" s="33"/>
       <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
+      <c r="E200" s="33" t="s">
+        <v>268</v>
+      </c>
       <c r="F200" s="33" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="G200" s="34" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="35" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C201" s="35"/>
       <c r="D201" s="35"/>
-      <c r="E201" s="35"/>
+      <c r="E201" s="35" t="s">
+        <v>271</v>
+      </c>
       <c r="F201" s="36">
-        <v>43044</v>
+        <v>500</v>
       </c>
       <c r="G201" s="36">
-        <f>F201/12</f>
-        <v>3587</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="2:7">
       <c r="B202" s="35" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C202" s="35"/>
       <c r="D202" s="35"/>
-      <c r="E202" s="35"/>
+      <c r="E202" s="35" t="s">
+        <v>270</v>
+      </c>
       <c r="F202" s="36">
+        <v>500</v>
+      </c>
+      <c r="G202" s="36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C203" s="35"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F203" s="36">
+        <v>500</v>
+      </c>
+      <c r="G203" s="36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C206" s="56"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G208" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="36">
+        <v>43044</v>
+      </c>
+      <c r="G209" s="36">
+        <f>F209/12</f>
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C210" s="35"/>
+      <c r="D210" s="35"/>
+      <c r="E210" s="35"/>
+      <c r="F210" s="36">
         <v>50000</v>
       </c>
-      <c r="G202" s="36">
-        <f>F202/12</f>
+      <c r="G210" s="36">
+        <f>F210/12</f>
         <v>4166.666666666667</v>
       </c>
     </row>
-    <row r="203" spans="2:7">
-      <c r="B203" s="42"/>
-      <c r="C203" s="42"/>
-      <c r="D203" s="42"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="G203" s="43">
-        <f>G202-G201</f>
+    <row r="211" spans="2:7">
+      <c r="B211" s="42"/>
+      <c r="C211" s="42"/>
+      <c r="D211" s="42"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="G211" s="43">
+        <f>G210-G209</f>
         <v>579.66666666666697</v>
       </c>
     </row>
-    <row r="204" spans="2:7">
-      <c r="B204" s="42"/>
-      <c r="C204" s="42"/>
-      <c r="D204" s="42"/>
-      <c r="E204" s="42"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="43"/>
-    </row>
-    <row r="205" spans="2:7">
-      <c r="B205" s="30" t="s">
+    <row r="212" spans="2:7">
+      <c r="B212" s="42"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="42"/>
+      <c r="E212" s="42"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="206" spans="2:7">
-      <c r="B206" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B8:G37"/>
+  <autoFilter ref="B8:G36"/>
   <mergeCells count="12">
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B115:G115"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="A2:G3"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B82:G82"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Mapeamento.xlsx
+++ b/Mapeamento.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custos" sheetId="1" r:id="rId1"/>
     <sheet name="Banco de Dados" sheetId="2" r:id="rId2"/>
-    <sheet name="Plano de ação" sheetId="3" r:id="rId3"/>
+    <sheet name="Formulação" sheetId="3" r:id="rId3"/>
     <sheet name="Plano de Vendas" sheetId="4" r:id="rId4"/>
     <sheet name="Apresentação da Empresa" sheetId="5" r:id="rId5"/>
     <sheet name="Capacidade de Produção" sheetId="6" r:id="rId6"/>
@@ -21,7 +21,7 @@
     <sheet name="Distribuição lucros" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'investimento inicial'!$A$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'investimento inicial'!$A$1:$E$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Viabilidade!$B$8:$G$36</definedName>
     <definedName name="kgparafina">'Capacidade produtiva'!$J$6</definedName>
     <definedName name="lucro">'Custo de Produção'!$J$12</definedName>
@@ -74,7 +74,7 @@
     <author>Walisson Sobral</author>
   </authors>
   <commentList>
-    <comment ref="B153" authorId="0">
+    <comment ref="B145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="299">
   <si>
     <t>Despesas com Parafina</t>
   </si>
@@ -989,6 +989,18 @@
   </si>
   <si>
     <t>Acessórios de escritório</t>
+  </si>
+  <si>
+    <t>qtd 7 dias</t>
+  </si>
+  <si>
+    <t>qtd palito</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>quantidade</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1118,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,22 +1239,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,7 +2206,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2236,29 +2254,29 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C3" s="16">
-        <v>240</v>
-      </c>
-      <c r="D3" s="52">
+        <v>40</v>
+      </c>
+      <c r="D3" s="51">
         <v>260</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="60">
         <f>($J$3/C4)*C3</f>
-        <v>5039.3999999999996</v>
-      </c>
-      <c r="F3" s="58">
+        <v>839.9</v>
+      </c>
+      <c r="F3" s="60">
         <f>E3*22</f>
-        <v>110866.79999999999</v>
-      </c>
-      <c r="G3" s="59">
+        <v>18477.8</v>
+      </c>
+      <c r="G3" s="61">
         <f>(F3*D3)/1000</f>
-        <v>28825.367999999995</v>
+        <v>4804.2280000000001</v>
       </c>
       <c r="I3" t="s">
         <v>199</v>
@@ -2269,17 +2287,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:10">
       <c r="I5" t="s">
@@ -2287,54 +2305,54 @@
       </c>
       <c r="J5" s="14">
         <f>(G3+G6+B14)*6</f>
-        <v>276723.53279999999</v>
+        <v>60533.272800000006</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C6" s="16">
-        <v>396</v>
-      </c>
-      <c r="D6" s="52">
+        <v>196</v>
+      </c>
+      <c r="D6" s="51">
         <v>30</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="60">
         <f>($J$3/C7)*C6</f>
-        <v>11086.68</v>
-      </c>
-      <c r="F6" s="58">
+        <v>5487.3466666666664</v>
+      </c>
+      <c r="F6" s="60">
         <f>E6*22</f>
-        <v>243906.96000000002</v>
-      </c>
-      <c r="G6" s="59">
+        <v>120721.62666666666</v>
+      </c>
+      <c r="G6" s="61">
         <f>((F6*D6)/1000)</f>
-        <v>7317.2088000000003</v>
+        <v>3621.6487999999999</v>
       </c>
       <c r="I6" t="s">
         <v>203</v>
       </c>
       <c r="J6" s="7">
         <f>(G3+G6+B14)</f>
-        <v>46120.588799999998</v>
+        <v>10088.8788</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C7" s="16">
         <v>15</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:10">
       <c r="I8" t="s">
@@ -2342,7 +2360,7 @@
       </c>
       <c r="J8" s="14">
         <f>6*G3</f>
-        <v>172952.20799999998</v>
+        <v>28825.368000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2351,7 +2369,7 @@
       </c>
       <c r="F9" s="20">
         <f>(F6*0.03)</f>
-        <v>7317.2088000000003</v>
+        <v>3621.6487999999999</v>
       </c>
       <c r="G9" s="20"/>
       <c r="I9" t="s">
@@ -2359,7 +2377,7 @@
       </c>
       <c r="J9" s="14">
         <f>6.5*qtdpalitokg</f>
-        <v>47561.857199999999</v>
+        <v>23540.717199999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2368,17 +2386,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="51">
         <f>qtd7dias*3</f>
-        <v>332600.39999999997</v>
+        <v>55433.399999999994</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="16" t="s">
@@ -2388,23 +2406,23 @@
     <row r="14" spans="1:10">
       <c r="B14" s="20">
         <f>B11*0.03</f>
-        <v>9978.0119999999988</v>
+        <v>1663.0019999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2443,7 +2461,7 @@
       </c>
       <c r="K3" s="22">
         <f>F22/K5</f>
-        <v>6.8948389765570379</v>
+        <v>7.0549781785464605</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2473,7 +2491,7 @@
       </c>
       <c r="K5" s="16">
         <f>kgparafina</f>
-        <v>46120.588799999998</v>
+        <v>10088.8788</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2495,7 +2513,7 @@
       </c>
       <c r="F6" s="25">
         <f>E6*kgparafina</f>
-        <v>16142.206079999998</v>
+        <v>3531.1075799999999</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>172</v>
@@ -2513,11 +2531,11 @@
       </c>
       <c r="K7" s="22">
         <f>K3*0.26</f>
-        <v>1.79265813390483</v>
+        <v>1.8342943264220797</v>
       </c>
       <c r="L7" s="21">
         <f>J7*qtd7dias</f>
-        <v>321513.71999999997</v>
+        <v>53585.619999999995</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>223</v>
@@ -2542,7 +2560,7 @@
       </c>
       <c r="F8" s="25">
         <f>E8*kgparafina</f>
-        <v>299783.8272</v>
+        <v>65577.712200000009</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>206</v>
@@ -2552,11 +2570,11 @@
       </c>
       <c r="K8" s="22">
         <f>K3</f>
-        <v>6.8948389765570379</v>
+        <v>7.0549781785464605</v>
       </c>
       <c r="L8" s="21">
         <f>J8*qtdpalitokg</f>
-        <v>79757.575920000003</v>
+        <v>39475.971920000004</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>223</v>
@@ -2579,7 +2597,7 @@
       </c>
       <c r="J10" s="21">
         <f>(J7*qtd7dias)+(J8*qtdpalitokg)</f>
-        <v>401271.29591999995</v>
+        <v>93061.591920000006</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2602,7 +2620,7 @@
       </c>
       <c r="J12" s="22">
         <f>J10-F22</f>
-        <v>83277.262639999972</v>
+        <v>21884.772140000001</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2625,7 +2643,7 @@
       </c>
       <c r="J14" s="22">
         <f>F22-F8</f>
-        <v>18210.206079999974</v>
+        <v>5599.1075799999962</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2676,7 +2694,7 @@
     <row r="22" spans="1:6">
       <c r="F22" s="24">
         <f>SUM(F6:F20)</f>
-        <v>317994.03327999997</v>
+        <v>71176.819780000005</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2737,7 @@
       </c>
       <c r="C2" s="24">
         <f>(B2*lucro)</f>
-        <v>24983.178791999992</v>
+        <v>6565.4316420000005</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2731,7 +2749,7 @@
       </c>
       <c r="C3" s="24">
         <f>(B3*lucro)</f>
-        <v>24983.178791999992</v>
+        <v>6565.4316420000005</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2743,7 +2761,7 @@
       </c>
       <c r="C4" s="24">
         <f>(B4*lucro)</f>
-        <v>20819.315659999993</v>
+        <v>5471.1930350000002</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2755,7 +2773,7 @@
       </c>
       <c r="C5" s="24">
         <f>(B5*lucro)</f>
-        <v>12491.589395999996</v>
+        <v>3282.7158210000002</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2769,7 +2787,7 @@
       </c>
       <c r="B12" s="7">
         <f>(180000/lucro)</f>
-        <v>2.1614543309153138</v>
+        <v>8.2248971498772931</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2778,11 +2796,11 @@
       </c>
       <c r="B13" s="15">
         <f>('Custo de Produção'!J10-'Custo de Produção'!F22)/'Custo de Produção'!F22</f>
-        <v>0.26188309818591066</v>
+        <v>0.30747049682246985</v>
       </c>
       <c r="C13" s="26">
         <f>(B13*100%)</f>
-        <v>0.26188309818591066</v>
+        <v>0.30747049682246985</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>227</v>
@@ -2797,7 +2815,7 @@
       </c>
       <c r="B14" s="15">
         <f>'Custo de Produção'!L7-('Custo de Produção'!F22-'Capacidade produtiva'!J9)</f>
-        <v>51081.543919999967</v>
+        <v>5949.5174199999892</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2806,7 +2824,7 @@
       </c>
       <c r="B15" s="15">
         <f>'Custo de Produção'!L8-('Custo de Produção'!F22-'Capacidade produtiva'!J8)</f>
-        <v>-65284.249359999987</v>
+        <v>-2875.4798599999995</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2899,14 +2917,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3014,7 +3047,7 @@
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3041,11 +3074,11 @@
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="J2" s="1" t="s">
@@ -3068,19 +3101,19 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="1">
         <v>1482</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="P3" s="2">
         <v>8</v>
@@ -3161,11 +3194,11 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
       <c r="O11" t="s">
         <v>148</v>
       </c>
@@ -3186,26 +3219,26 @@
         <f>(F10*G3)/1000</f>
         <v>0</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
       <c r="O13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
       <c r="E14">
         <v>0.16</v>
       </c>
@@ -3232,9 +3265,9 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="J15" s="12">
         <f>(E6*1000)/$H$34</f>
         <v>3846.1538461538462</v>
@@ -3298,11 +3331,11 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="K19" t="s">
         <v>126</v>
       </c>
@@ -3320,44 +3353,44 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26">
         <f>(1*$E$3)</f>
         <v>1482</v>
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" t="s">
         <v>88</v>
       </c>
@@ -3366,9 +3399,9 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="7">
         <f>(E3*$P$8)*15%+E3</f>
         <v>38828.400000000001</v>
@@ -3379,35 +3412,35 @@
       </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="51">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="54">
         <f>(21*E12)</f>
         <v>8091.72</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="54">
         <f>(21*F12)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="54">
         <f>(21*G12)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="51" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="8"/>
@@ -3424,21 +3457,21 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50">
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
         <f>E17*21</f>
         <v>4.9795199999999999</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3"/>
@@ -3446,32 +3479,24 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="51">
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="54">
         <f>E26*21</f>
         <v>31122</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="51"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:E33"/>
     <mergeCell ref="B36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="B39:D40"/>
@@ -3483,6 +3508,14 @@
     <mergeCell ref="B19:D20"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B25:D26"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3514,16 +3547,16 @@
       <c r="B3">
         <v>3500</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="K3" s="54" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="K3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" t="s">
         <v>137</v>
       </c>
@@ -3746,10 +3779,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3775,6 +3809,12 @@
       <c r="E1" s="39" t="s">
         <v>239</v>
       </c>
+      <c r="G1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -3790,7 +3830,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="39">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3807,7 +3847,7 @@
         <v>69</v>
       </c>
       <c r="E3" s="39">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3824,10 +3864,10 @@
         <v>69</v>
       </c>
       <c r="E4" s="39">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -3839,9 +3879,6 @@
       </c>
       <c r="D5" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" s="39">
-        <v>5200</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3858,10 +3895,10 @@
         <v>69</v>
       </c>
       <c r="E6" s="39">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3873,9 +3910,6 @@
       </c>
       <c r="D7" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="39">
-        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3889,11 +3923,11 @@
         <v>237</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="39">
         <f>(6*D8)*1000</f>
-        <v>30000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3908,11 +3942,11 @@
       </c>
       <c r="D9">
         <f>E9/350</f>
-        <v>5</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="E9" s="39">
         <f>(0.35*D8)*1000</f>
-        <v>1750</v>
+        <v>524.99999999999989</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>241</v>
@@ -3930,11 +3964,11 @@
       </c>
       <c r="D10" s="38">
         <f>((qtdpalito)*0.15)/1000+5.04</f>
-        <v>41.626044</v>
+        <v>23.148243999999998</v>
       </c>
       <c r="E10" s="40">
         <f>D10*16.5</f>
-        <v>686.82972600000005</v>
+        <v>381.94602599999996</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>242</v>
@@ -3955,14 +3989,14 @@
       </c>
       <c r="D11" s="7">
         <f>((D8*41%)*1000)/0.26</f>
-        <v>7884.6153846153848</v>
+        <v>2365.3846153846152</v>
       </c>
       <c r="E11" s="39">
         <f>(129.69/3000)*D11</f>
-        <v>340.85192307692307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>102.25557692307692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -3988,13 +4022,13 @@
       </c>
       <c r="E13" s="39">
         <f>IF(D8=5,0.1*8077,0.1*qtd7dias)</f>
-        <v>807.7</v>
+        <v>1847.78</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" t="s">
         <v>247</v>
       </c>
@@ -4050,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="39">
-        <v>10000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4067,10 +4101,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="39">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4083,11 +4117,8 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="39">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>285</v>
       </c>
@@ -4100,11 +4131,8 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="39">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -4117,11 +4145,8 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="39">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -4133,9 +4158,6 @@
       </c>
       <c r="D22">
         <v>1</v>
-      </c>
-      <c r="E22" s="39">
-        <v>30000</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4155,7 +4177,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -4167,9 +4189,6 @@
       </c>
       <c r="D24">
         <v>1</v>
-      </c>
-      <c r="E24" s="39">
-        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4214,7 +4233,7 @@
         <v>69</v>
       </c>
       <c r="E27" s="39">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4231,7 +4250,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="39">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4268,7 +4287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" t="s">
         <v>252</v>
       </c>
@@ -4280,9 +4299,6 @@
       </c>
       <c r="D31" t="s">
         <v>69</v>
-      </c>
-      <c r="E31" s="39">
-        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4299,7 +4315,7 @@
         <v>69</v>
       </c>
       <c r="E32" s="39">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4307,22 +4323,28 @@
         <v>122</v>
       </c>
       <c r="E34" s="39">
-        <f>SUM(E2:E31)</f>
-        <v>130938.38164907692</v>
+        <f>SUM(E2:E32)</f>
+        <v>30226.981602923079</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E29"/>
+  <autoFilter ref="A1:E32">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H214"/>
+  <dimension ref="A2:H207"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4339,36 +4361,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="33" t="s">
@@ -4409,7 +4431,7 @@
       </c>
       <c r="G9" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B9,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4433,7 +4455,7 @@
       </c>
       <c r="G10" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B10,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4457,7 +4479,7 @@
       </c>
       <c r="G11" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B11,'investimento inicial'!$A:$A,0))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4481,7 +4503,7 @@
       </c>
       <c r="G12" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B12,'investimento inicial'!$A:$A,0))</f>
-        <v>5200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4528,7 +4550,7 @@
       </c>
       <c r="G14" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B14,'investimento inicial'!$A:$A,0))</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4548,11 +4570,11 @@
       </c>
       <c r="F15" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B15,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4572,11 +4594,11 @@
       </c>
       <c r="F16" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
-        <v>5</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="G16" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B16,'investimento inicial'!$A:$A,0))</f>
-        <v>1750</v>
+        <v>524.99999999999989</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4596,11 +4618,11 @@
       </c>
       <c r="F17" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
-        <v>41.626044</v>
+        <v>23.148243999999998</v>
       </c>
       <c r="G17" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B17,'investimento inicial'!$A:$A,0))</f>
-        <v>686.82972600000005</v>
+        <v>381.94602599999996</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4620,11 +4642,11 @@
       </c>
       <c r="F18" s="41">
         <f>INDEX('investimento inicial'!$D:$D,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
-        <v>7884.6153846153848</v>
+        <v>2365.3846153846152</v>
       </c>
       <c r="G18" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B18,'investimento inicial'!$A:$A,0))</f>
-        <v>340.85192307692307</v>
+        <v>102.25557692307692</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4672,7 +4694,7 @@
       </c>
       <c r="G20" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B20,'investimento inicial'!$A:$A,0))</f>
-        <v>807.7</v>
+        <v>1847.78</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4768,7 +4790,7 @@
       </c>
       <c r="G24" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B24,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4792,7 +4814,7 @@
       </c>
       <c r="G25" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B25,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1">
@@ -4817,7 +4839,7 @@
       </c>
       <c r="G26" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B26,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="31"/>
     </row>
@@ -4842,7 +4864,7 @@
       </c>
       <c r="G27" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B27,'investimento inicial'!$A:$A,0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4866,7 +4888,7 @@
       </c>
       <c r="G28" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B28,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4962,7 +4984,7 @@
       </c>
       <c r="G32" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B32,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4986,7 +5008,7 @@
       </c>
       <c r="G33" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B33,'investimento inicial'!$A:$A,0))</f>
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5043,7 +5065,7 @@
       </c>
       <c r="G36" s="32">
         <f>SUM(G9:G35)</f>
-        <v>110588.38164907692</v>
+        <v>30464.981602923079</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="28" customFormat="1">
@@ -5218,14 +5240,14 @@
     </row>
     <row r="56" spans="1:8" s="28" customFormat="1">
       <c r="A56" s="31"/>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8" s="28" customFormat="1">
@@ -5263,7 +5285,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B59,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H59" s="31"/>
     </row>
@@ -5278,7 +5300,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B60,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H60" s="31"/>
     </row>
@@ -5321,7 +5343,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B63,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="H63" s="31"/>
     </row>
@@ -5336,7 +5358,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B64,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H64" s="31"/>
     </row>
@@ -5351,7 +5373,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B65,'investimento inicial'!$A:$A,0))</f>
-        <v>1750</v>
+        <v>524.99999999999989</v>
       </c>
       <c r="H65" s="31"/>
     </row>
@@ -5366,7 +5388,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B66,'investimento inicial'!$A:$A,0))</f>
-        <v>686.82972600000005</v>
+        <v>381.94602599999996</v>
       </c>
       <c r="H66" s="31"/>
     </row>
@@ -5380,7 +5402,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B67,'investimento inicial'!$A:$A,0))</f>
-        <v>340.85192307692307</v>
+        <v>102.25557692307692</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5406,7 +5428,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B69,'investimento inicial'!$A:$A,0))</f>
-        <v>807.7</v>
+        <v>1847.78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5446,7 +5468,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B72,'investimento inicial'!$A:$A,0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H72" s="31"/>
     </row>
@@ -5506,7 +5528,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B76,'investimento inicial'!$A:$A,0))</f>
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="H76" s="31"/>
     </row>
@@ -5550,19 +5572,19 @@
       </c>
       <c r="G79" s="43">
         <f>SUM(G59:G78)</f>
-        <v>71888.381649076924</v>
+        <v>16009.981602923077</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="28" customFormat="1">
       <c r="A82" s="31"/>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="31"/>
     </row>
     <row r="83" spans="1:8" s="28" customFormat="1">
@@ -5608,7 +5630,7 @@
       </c>
       <c r="G85" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B85,'investimento inicial'!$A:$A,0))</f>
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="H85" s="31"/>
     </row>
@@ -5627,7 +5649,7 @@
       </c>
       <c r="G86" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B86,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="H86" s="31"/>
     </row>
@@ -5646,7 +5668,7 @@
       </c>
       <c r="G87" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B87,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="H87" s="31"/>
     </row>
@@ -5665,7 +5687,7 @@
       </c>
       <c r="G88" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B88,'investimento inicial'!$A:$A,0))</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H88" s="31"/>
     </row>
@@ -5682,7 +5704,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B89,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -5715,7 +5737,7 @@
       </c>
       <c r="G91" s="43">
         <f>SUM(G85:G90)</f>
-        <v>37700</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="28" customFormat="1">
@@ -5868,113 +5890,137 @@
       <c r="G106" s="43"/>
       <c r="H106" s="47"/>
     </row>
-    <row r="107" spans="1:8" s="46" customFormat="1">
-      <c r="A107" s="47"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="47"/>
-    </row>
-    <row r="108" spans="1:8" s="46" customFormat="1">
-      <c r="A108" s="47"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="47"/>
-    </row>
-    <row r="109" spans="1:8" s="46" customFormat="1">
-      <c r="A109" s="47"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="47"/>
-    </row>
-    <row r="110" spans="1:8" s="46" customFormat="1">
-      <c r="A110" s="47"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="47"/>
-    </row>
-    <row r="111" spans="1:8" s="28" customFormat="1">
-      <c r="A111" s="31"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="31"/>
-    </row>
-    <row r="112" spans="1:8" s="28" customFormat="1">
-      <c r="A112" s="31"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="31"/>
-    </row>
-    <row r="113" spans="1:8" s="28" customFormat="1">
-      <c r="A113" s="31"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="31"/>
-    </row>
-    <row r="114" spans="1:8" s="28" customFormat="1">
-      <c r="A114" s="31"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="42"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="31"/>
-    </row>
-    <row r="115" spans="1:8" s="28" customFormat="1">
-      <c r="A115" s="31"/>
-      <c r="B115" s="57" t="s">
+    <row r="107" spans="1:8" s="28" customFormat="1">
+      <c r="A107" s="31"/>
+      <c r="B107" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="31"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" s="33" t="s">
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="31"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="34" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="110" spans="1:8">
+      <c r="B110" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B110,'investimento inicial'!$A:$A,0))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B111,'investimento inicial'!$A:$A,0))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B112,'investimento inicial'!$A:$A,0))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B113,'investimento inicial'!$A:$A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B114,'investimento inicial'!$A:$A,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B115,'investimento inicial'!$A:$A,0))</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B116,'investimento inicial'!$A:$A,0))</f>
+        <v>524.99999999999989</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="36">
+        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B117,'investimento inicial'!$A:$A,0))</f>
+        <v>381.94602599999996</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
       <c r="B118" s="35" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
@@ -5982,12 +6028,12 @@
       <c r="F118" s="35"/>
       <c r="G118" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B118,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>102.25557692307692</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
       <c r="B119" s="35" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
@@ -5995,12 +6041,12 @@
       <c r="F119" s="35"/>
       <c r="G119" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B119,'investimento inicial'!$A:$A,0))</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
       <c r="B120" s="35" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
@@ -6008,12 +6054,12 @@
       <c r="F120" s="35"/>
       <c r="G120" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B120,'investimento inicial'!$A:$A,0))</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>1847.78</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
       <c r="B121" s="35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C121" s="35"/>
       <c r="D121" s="35"/>
@@ -6021,12 +6067,12 @@
       <c r="F121" s="35"/>
       <c r="G121" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B121,'investimento inicial'!$A:$A,0))</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
       <c r="B122" s="35" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
@@ -6034,12 +6080,12 @@
       <c r="F122" s="35"/>
       <c r="G122" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B122,'investimento inicial'!$A:$A,0))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
       <c r="B123" s="35" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
@@ -6047,12 +6093,12 @@
       <c r="F123" s="35"/>
       <c r="G123" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B123,'investimento inicial'!$A:$A,0))</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
       <c r="B124" s="35" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
@@ -6060,189 +6106,189 @@
       <c r="F124" s="35"/>
       <c r="G124" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B124,'investimento inicial'!$A:$A,0))</f>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="B125" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
       <c r="G125" s="36">
         <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B125,'investimento inicial'!$A:$A,0))</f>
-        <v>686.82972600000005</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="B126" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B126,'investimento inicial'!$A:$A,0))</f>
-        <v>340.85192307692307</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B127,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="B128" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B128,'investimento inicial'!$A:$A,0))</f>
-        <v>807.7</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G126" s="43">
+        <f>SUM(G110:G125)</f>
+        <v>13855.981602923077</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="43"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="42"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="43"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B129,'investimento inicial'!$A:$A,0))</f>
-        <v>0</v>
-      </c>
+      <c r="B129" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="58"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B130,'investimento inicial'!$A:$A,0))</f>
-        <v>64</v>
+      <c r="B130" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E130" s="30">
+        <f>'investimento inicial'!D8</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B131,'investimento inicial'!$A:$A,0))</f>
-        <v>1500</v>
+      <c r="B131" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="35" t="s">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="35"/>
       <c r="F132" s="35"/>
       <c r="G132" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B132,'investimento inicial'!$A:$A,0))</f>
-        <v>60</v>
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B132,'investimento inicial'!A:A,0))</f>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
+      <c r="B133" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
       <c r="G133" s="36">
-        <f>INDEX('investimento inicial'!$E:$E,MATCH(Viabilidade!$B133,'investimento inicial'!$A:$A,0))</f>
-        <v>200</v>
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B133,'investimento inicial'!A:A,0))</f>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="42"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="G134" s="43">
-        <f>SUM(G118:G133)</f>
-        <v>37217.381649076924</v>
+      <c r="B134" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B134,'investimento inicial'!A:A,0))</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="42"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
-      <c r="G135" s="43"/>
+      <c r="B135" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B135,'investimento inicial'!A:A,0))</f>
+        <v>524.99999999999989</v>
+      </c>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="43"/>
+      <c r="B136" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B136,'investimento inicial'!A:A,0))</f>
+        <v>381.94602599999996</v>
+      </c>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="C137" s="56"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56"/>
+      <c r="B137" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B137,'investimento inicial'!A:A,0))</f>
+        <v>102.25557692307692</v>
+      </c>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E138" s="30">
-        <f>'investimento inicial'!D8</f>
-        <v>5</v>
+      <c r="B138" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B138,'investimento inicial'!A:A,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="34" t="s">
-        <v>81</v>
+      <c r="B139" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B139,'investimento inicial'!A:A,0))</f>
+        <v>1847.78</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="35" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
@@ -6250,12 +6296,12 @@
       <c r="F140" s="35"/>
       <c r="G140" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B140,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="35" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C141" s="35"/>
       <c r="D141" s="35"/>
@@ -6263,325 +6309,319 @@
       <c r="F141" s="35"/>
       <c r="G141" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B141,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B142,'investimento inicial'!A:A,0))</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="B143" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B143,'investimento inicial'!A:A,0))</f>
-        <v>1750</v>
+      <c r="F142" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G142" s="32">
+        <f>SUM(G134:G141)</f>
+        <v>11856.981602923077</v>
       </c>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B144,'investimento inicial'!A:A,0))</f>
-        <v>686.82972600000005</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B145,'investimento inicial'!A:A,0))</f>
-        <v>340.85192307692307</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B146,'investimento inicial'!A:A,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
+      <c r="B144" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C144" s="58"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="58"/>
+      <c r="G144" s="58"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145" s="19"/>
+      <c r="C145" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E145" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="F145" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G145" s="32">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G146" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="B147" s="35" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
+      <c r="E147" s="41">
+        <f>((E130*42%)/0.26)*1000</f>
+        <v>2423.0769230769229</v>
+      </c>
+      <c r="F147" s="35" t="s">
+        <v>231</v>
+      </c>
       <c r="G147" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B147,'investimento inicial'!A:A,0))</f>
-        <v>807.7</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7">
+        <f>E147*$E$145</f>
+        <v>7026.9230769230762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="B148" s="35" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C148" s="35"/>
       <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
+      <c r="E148" s="41">
+        <f>(((E130*43.54%)/0.03)*1000)*0.03</f>
+        <v>653.1</v>
+      </c>
+      <c r="F148" s="35" t="s">
+        <v>118</v>
+      </c>
       <c r="G148" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B148,'investimento inicial'!A:A,0))</f>
+        <f>G145*E148</f>
+        <v>7118.7900000000009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="F149" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G149" s="32">
+        <f>SUM(G147:G148)</f>
+        <v>14145.713076923077</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="49" customFormat="1">
+      <c r="A157" s="50"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="50"/>
+    </row>
+    <row r="158" spans="1:8" s="49" customFormat="1">
+      <c r="A158" s="50"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="50"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C161" s="58"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="58"/>
+      <c r="F161" s="58"/>
+      <c r="G161" s="58"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="35"/>
+      <c r="F164" s="35"/>
+      <c r="G164" s="36">
+        <f>G149-G126</f>
+        <v>289.73147400000016</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="43"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="42"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="43"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="42"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="43"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="C168" s="58"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E169" s="30">
+        <f>'investimento inicial'!D8</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171" s="35"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="35"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B171,'investimento inicial'!A:A,0))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C172" s="35"/>
+      <c r="D172" s="35"/>
+      <c r="E172" s="35"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B172,'investimento inicial'!A:A,0))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B173,'investimento inicial'!A:A,0))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B174,'investimento inicial'!A:A,0))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B175,'investimento inicial'!A:A,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
-      <c r="B149" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B149,'investimento inicial'!A:A,0))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7">
-      <c r="F150" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="G150" s="32">
-        <f>SUM(G142:G149)</f>
-        <v>34585.381649076917</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7">
-      <c r="B152" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="C152" s="56"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="56"/>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" s="19"/>
-      <c r="C153" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E153" s="30">
-        <v>2.9</v>
-      </c>
-      <c r="F153" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G153" s="32">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7">
-      <c r="B154" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G154" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7">
-      <c r="B155" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="41">
-        <f>((E138*42%)/0.26)*1000</f>
-        <v>8076.9230769230762</v>
-      </c>
-      <c r="F155" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="G155" s="36">
-        <f>E155*$E$153</f>
-        <v>23423.076923076922</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7">
-      <c r="B156" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C156" s="35"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="41">
-        <f>(((E138*43.54%)/0.03)*1000)*0.03</f>
-        <v>2177</v>
-      </c>
-      <c r="F156" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G156" s="36">
-        <f>G153*E156</f>
-        <v>23729.3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="F157" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="G157" s="32">
-        <f>SUM(G155:G156)</f>
-        <v>47152.376923076925</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="C167" s="56"/>
-      <c r="D167" s="56"/>
-      <c r="E167" s="56"/>
-      <c r="F167" s="56"/>
-      <c r="G167" s="56"/>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="B170" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="36">
-        <f>G157-G134</f>
-        <v>9934.9952740000008</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="B171" s="42"/>
-      <c r="C171" s="42"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="43"/>
-    </row>
-    <row r="172" spans="2:7">
-      <c r="B172" s="42"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="42"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
-      <c r="G172" s="43"/>
-    </row>
-    <row r="173" spans="2:7">
-      <c r="B173" s="42"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="42"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
-      <c r="G173" s="43"/>
-    </row>
-    <row r="174" spans="2:7">
-      <c r="B174" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="C174" s="56"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="56"/>
-    </row>
-    <row r="175" spans="2:7">
-      <c r="B175" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E175" s="30">
-        <f>'investimento inicial'!D8</f>
-        <v>5</v>
-      </c>
-    </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="34" t="s">
-        <v>81</v>
+      <c r="B176" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36">
+        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B176,'investimento inicial'!A:A,0))</f>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C177" s="35"/>
-      <c r="D177" s="35"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="35"/>
+      <c r="B177" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="36"/>
       <c r="G177" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B177,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C178" s="35"/>
-      <c r="D178" s="35"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="35"/>
+      <c r="B178" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" s="36"/>
+      <c r="D178" s="36"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="36"/>
       <c r="G178" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B178,'investimento inicial'!A:A,0))</f>
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="2:7">
       <c r="B179" s="36" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="C179" s="36"/>
       <c r="D179" s="36"/>
@@ -6589,362 +6629,269 @@
       <c r="F179" s="36"/>
       <c r="G179" s="36">
         <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B179,'investimento inicial'!A:A,0))</f>
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B180,'investimento inicial'!A:A,0))</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7">
-      <c r="B181" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B181,'investimento inicial'!A:A,0))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7">
-      <c r="B182" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="36"/>
-      <c r="E182" s="36"/>
-      <c r="F182" s="36"/>
-      <c r="G182" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B182,'investimento inicial'!A:A,0))</f>
-        <v>64</v>
+      <c r="F180" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G180" s="32">
+        <f>SUM(G171:G179)</f>
+        <v>1999</v>
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="58"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="58"/>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G185" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C186" s="35"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="44">
+        <v>0.33</v>
+      </c>
+      <c r="G186" s="36">
+        <f>$G$164*F186</f>
+        <v>95.611386420000059</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C187" s="35"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="35"/>
+      <c r="F187" s="44">
+        <v>0.33</v>
+      </c>
+      <c r="G187" s="36">
+        <f>$G$164*F187</f>
+        <v>95.611386420000059</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C188" s="35"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="35"/>
+      <c r="F188" s="44">
+        <v>0.33</v>
+      </c>
+      <c r="G188" s="36">
+        <f>$G$164*F188</f>
+        <v>95.611386420000059</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="42"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="42"/>
+      <c r="E189" s="42"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="43"/>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C183" s="36"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="36"/>
-      <c r="G183" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B183,'investimento inicial'!A:A,0))</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7">
-      <c r="B184" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C184" s="36"/>
-      <c r="D184" s="36"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B184,'investimento inicial'!A:A,0))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7">
-      <c r="B185" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="C185" s="36"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="36"/>
-      <c r="G185" s="36">
-        <f>INDEX('investimento inicial'!E:E,MATCH(Viabilidade!B185,'investimento inicial'!A:A,0))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7">
-      <c r="F186" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="G186" s="32">
-        <f>SUM(G177:G185)</f>
-        <v>3632</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7">
-      <c r="B189" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C189" s="56"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="56"/>
-      <c r="F189" s="56"/>
-      <c r="G189" s="56"/>
-    </row>
-    <row r="191" spans="2:7">
-      <c r="B191" s="33" t="s">
+      <c r="C191" s="58"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G191" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7">
-      <c r="B192" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C192" s="35"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="G192" s="36">
-        <f>$G$170*F192</f>
-        <v>2483.7488185000002</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7">
-      <c r="B193" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C193" s="35"/>
-      <c r="D193" s="35"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="G193" s="36">
-        <f t="shared" ref="G193:G195" si="0">$G$170*F193</f>
-        <v>2483.7488185000002</v>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="F193" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G193" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="2:7">
       <c r="B194" s="35" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="44">
-        <v>0.25</v>
+      <c r="E194" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F194" s="36">
+        <v>500</v>
       </c>
       <c r="G194" s="36">
-        <f t="shared" si="0"/>
-        <v>2483.7488185000002</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="35" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="44">
-        <v>0.25</v>
+      <c r="E195" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F195" s="36">
+        <v>500</v>
       </c>
       <c r="G195" s="36">
-        <f t="shared" si="0"/>
-        <v>2483.7488185000002</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="42"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="42"/>
-      <c r="E196" s="42"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="43"/>
-    </row>
-    <row r="198" spans="2:7">
-      <c r="B198" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C198" s="56"/>
-      <c r="D198" s="56"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="56"/>
-    </row>
-    <row r="200" spans="2:7">
-      <c r="B200" s="33" t="s">
+      <c r="B196" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C196" s="35"/>
+      <c r="D196" s="35"/>
+      <c r="E196" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F196" s="36">
+        <v>500</v>
+      </c>
+      <c r="G196" s="36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C199" s="58"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="58"/>
+      <c r="G199" s="58"/>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F200" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="G200" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
-      <c r="B201" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C201" s="35"/>
-      <c r="D201" s="35"/>
-      <c r="E201" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F201" s="36">
-        <v>500</v>
-      </c>
-      <c r="G201" s="36">
-        <v>500</v>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G201" s="34" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="202" spans="2:7">
       <c r="B202" s="35" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C202" s="35"/>
       <c r="D202" s="35"/>
-      <c r="E202" s="35" t="s">
-        <v>270</v>
-      </c>
+      <c r="E202" s="35"/>
       <c r="F202" s="36">
-        <v>500</v>
+        <v>43044</v>
       </c>
       <c r="G202" s="36">
-        <v>500</v>
+        <f>F202/12</f>
+        <v>3587</v>
       </c>
     </row>
     <row r="203" spans="2:7">
       <c r="B203" s="35" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="C203" s="35"/>
       <c r="D203" s="35"/>
-      <c r="E203" s="35" t="s">
-        <v>269</v>
-      </c>
+      <c r="E203" s="35"/>
       <c r="F203" s="36">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G203" s="36">
-        <v>500</v>
-      </c>
+        <f>F203/12</f>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="42"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="42"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="G204" s="43">
+        <f>G203-G202</f>
+        <v>579.66666666666697</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="42"/>
+      <c r="C205" s="42"/>
+      <c r="D205" s="42"/>
+      <c r="E205" s="42"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C206" s="56"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="56"/>
-      <c r="F206" s="56"/>
-      <c r="G206" s="56"/>
-    </row>
-    <row r="208" spans="2:7">
-      <c r="B208" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="G208" s="34" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7">
-      <c r="B209" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="C209" s="35"/>
-      <c r="D209" s="35"/>
-      <c r="E209" s="35"/>
-      <c r="F209" s="36">
-        <v>43044</v>
-      </c>
-      <c r="G209" s="36">
-        <f>F209/12</f>
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7">
-      <c r="B210" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="C210" s="35"/>
-      <c r="D210" s="35"/>
-      <c r="E210" s="35"/>
-      <c r="F210" s="36">
-        <v>50000</v>
-      </c>
-      <c r="G210" s="36">
-        <f>F210/12</f>
-        <v>4166.666666666667</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7">
-      <c r="B211" s="42"/>
-      <c r="C211" s="42"/>
-      <c r="D211" s="42"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="G211" s="43">
-        <f>G210-G209</f>
-        <v>579.66666666666697</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7">
-      <c r="B212" s="42"/>
-      <c r="C212" s="42"/>
-      <c r="D212" s="42"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="43"/>
-      <c r="G212" s="43"/>
-    </row>
-    <row r="213" spans="2:7">
-      <c r="B213" s="30" t="s">
+      <c r="B206" s="30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="2:7">
-      <c r="B214" s="30" t="s">
+    <row r="207" spans="2:7">
+      <c r="B207" s="30" t="s">
         <v>273</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B8:G36"/>
   <mergeCells count="12">
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B107:G107"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B168:G168"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
